--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_2_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1477786.29390946</v>
+        <v>-1478498.558663205</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058544</v>
       </c>
     </row>
     <row r="9">
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>0.1776483877525565</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -1175,7 +1175,7 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.1776483877525582</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3.097658594934726</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,13 +1257,13 @@
         <v>3.516869431124803</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="S9" t="n">
-        <v>3.097658594934726</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="T9" t="n">
-        <v>3.516869431124803</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
@@ -1370,25 +1370,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
         <v>159.6303957926862</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="F11" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>130.1774756733166</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>42.41619975131221</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1415,19 +1415,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294978</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013692</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692367</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.738019759611</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1467,10 +1467,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,22 +1491,22 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R12" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050416</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="T12" t="n">
         <v>36.82929343736544</v>
       </c>
       <c r="U12" t="n">
-        <v>188.4860450762372</v>
+        <v>59.08630782930758</v>
       </c>
       <c r="V12" t="n">
-        <v>116.2849281712262</v>
+        <v>150.4838754174294</v>
       </c>
       <c r="W12" t="n">
         <v>88.56281972747055</v>
@@ -1610,22 +1610,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926862</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>185.624283999399</v>
       </c>
       <c r="G14" t="n">
         <v>188.4860450762372</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>168.880269579988</v>
       </c>
       <c r="I14" t="n">
-        <v>12.42066775464816</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,16 +1652,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294978</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013692</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692367</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204226</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.376387674824883</v>
+        <v>9.37638767482494</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -1695,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>76.83237305629736</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050416</v>
+        <v>13.44964351050422</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736544</v>
+        <v>117.9643722838055</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930758</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586121</v>
+        <v>62.50715706586126</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747055</v>
+        <v>88.56281972747061</v>
       </c>
       <c r="X15" t="n">
-        <v>39.17115058992957</v>
+        <v>39.17115058992962</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448458</v>
+        <v>45.24252228448464</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386643</v>
+        <v>25.28944752386649</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345544</v>
+        <v>57.2967650834555</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433099</v>
+        <v>45.61991340433105</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356656</v>
+        <v>110.5147946356657</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490887</v>
+        <v>66.96725133490892</v>
       </c>
       <c r="W16" t="n">
         <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870149</v>
+        <v>43.77769155870155</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462738</v>
+        <v>38.99950896462744</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256523</v>
       </c>
       <c r="C17" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591072</v>
       </c>
       <c r="D17" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E17" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F17" t="n">
-        <v>105.7473211947453</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G17" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040499</v>
       </c>
       <c r="H17" t="n">
-        <v>49.57010498426081</v>
+        <v>49.57010498426084</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1901,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W17" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X17" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y17" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="18">
@@ -1932,16 +1932,16 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>62.05216316314104</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>107.364552236389</v>
+        <v>41.3486686354581</v>
       </c>
       <c r="J18" t="n">
         <v>52.47830382393113</v>
@@ -1965,10 +1965,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -1977,16 +1977,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256523</v>
       </c>
       <c r="C20" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591072</v>
       </c>
       <c r="D20" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E20" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F20" t="n">
-        <v>105.7473211947453</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G20" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040499</v>
       </c>
       <c r="H20" t="n">
-        <v>49.57010498426079</v>
+        <v>49.57010498426087</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2138,16 +2138,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>23.42785516388398</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W20" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X20" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y20" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,16 +2169,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>52.47830382393113</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>8.480950658062991</v>
       </c>
       <c r="W21" t="n">
-        <v>40.01126397209613</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>76.63531193256517</v>
+        <v>76.63531193256523</v>
       </c>
       <c r="C23" t="n">
-        <v>52.75356893591066</v>
+        <v>52.75356893591072</v>
       </c>
       <c r="D23" t="n">
-        <v>40.32023119695913</v>
+        <v>40.32023119695918</v>
       </c>
       <c r="E23" t="n">
-        <v>74.026983616368</v>
+        <v>74.02698361636806</v>
       </c>
       <c r="F23" t="n">
-        <v>105.7473211947453</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G23" t="n">
-        <v>121.3863065040498</v>
+        <v>121.3863065040499</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426079</v>
+        <v>49.57010498426084</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2375,16 +2375,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>23.42785516388386</v>
+        <v>23.42785516388392</v>
       </c>
       <c r="W23" t="n">
-        <v>40.44453538049873</v>
+        <v>40.44453538049879</v>
       </c>
       <c r="X23" t="n">
-        <v>62.33078584943797</v>
+        <v>62.33078584943803</v>
       </c>
       <c r="Y23" t="n">
-        <v>84.83363897318173</v>
+        <v>84.83363897318179</v>
       </c>
     </row>
     <row r="24">
@@ -2397,7 +2397,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2406,7 +2406,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2415,10 +2415,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2451,19 +2451,19 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.93246249258666</v>
+        <v>166.0185085031497</v>
       </c>
     </row>
     <row r="25">
@@ -2561,19 +2561,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9908827095071</v>
+        <v>157.9908827095072</v>
       </c>
       <c r="F26" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G26" t="n">
-        <v>205.3502055971889</v>
+        <v>205.350205597189</v>
       </c>
       <c r="H26" t="n">
         <v>133.5340040773999</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442047</v>
+        <v>27.5241296044205</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754894</v>
+        <v>14.03037772754897</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335682</v>
+        <v>8.97812339433572</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945428</v>
+        <v>36.66251709945431</v>
       </c>
       <c r="V26" t="n">
         <v>107.391754257023</v>
@@ -2634,16 +2634,16 @@
         <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
@@ -2655,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>85.77936919695389</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>1.483027934777452</v>
+        <v>1.483027934777481</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671959</v>
+        <v>23.74004232671962</v>
       </c>
       <c r="V27" t="n">
-        <v>240.6489209154022</v>
+        <v>27.16089156327325</v>
       </c>
       <c r="W27" t="n">
-        <v>64.30222641156647</v>
+        <v>53.2165542248826</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341585</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y27" t="n">
-        <v>9.896256781896597</v>
+        <v>9.896256781896625</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086746</v>
+        <v>21.95049958086749</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174301</v>
+        <v>10.27364790174304</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307764</v>
+        <v>75.16852913307767</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232088</v>
+        <v>31.62098583232091</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720631</v>
+        <v>76.82267773720633</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113509</v>
+        <v>8.431426056113537</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039399</v>
+        <v>3.653243462039427</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>136.7174680290498</v>
       </c>
       <c r="D29" t="n">
-        <v>124.2841302900983</v>
+        <v>124.2841302900982</v>
       </c>
       <c r="E29" t="n">
         <v>157.9908827095071</v>
       </c>
       <c r="F29" t="n">
-        <v>189.7112202878845</v>
+        <v>189.7112202878844</v>
       </c>
       <c r="G29" t="n">
         <v>205.3502055971889</v>
@@ -2810,7 +2810,7 @@
         <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442047</v>
+        <v>27.52412960442044</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754894</v>
+        <v>14.03037772754891</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335691</v>
+        <v>8.978123394335654</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945428</v>
+        <v>36.66251709945425</v>
       </c>
       <c r="V29" t="n">
         <v>107.391754257023</v>
       </c>
       <c r="W29" t="n">
-        <v>124.4084344736379</v>
+        <v>124.4084344736378</v>
       </c>
       <c r="X29" t="n">
         <v>146.2946849425771</v>
       </c>
       <c r="Y29" t="n">
-        <v>168.7975380663209</v>
+        <v>168.7975380663208</v>
       </c>
     </row>
     <row r="30">
@@ -2877,22 +2877,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E30" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>56.16234139214671</v>
       </c>
       <c r="I30" t="n">
-        <v>81.09196614680057</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.483027934777452</v>
+        <v>1.483027934777424</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671959</v>
+        <v>23.74004232671956</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327322</v>
+        <v>27.1608915632732</v>
       </c>
       <c r="W30" t="n">
-        <v>53.21655422488257</v>
+        <v>53.21655422488254</v>
       </c>
       <c r="X30" t="n">
-        <v>3.824885087341585</v>
+        <v>3.824885087341556</v>
       </c>
       <c r="Y30" t="n">
-        <v>9.896256781896597</v>
+        <v>9.896256781896568</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086746</v>
+        <v>21.95049958086743</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174301</v>
+        <v>10.27364790174298</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307764</v>
+        <v>75.16852913307761</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232088</v>
+        <v>31.62098583232086</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720631</v>
+        <v>76.82267773720628</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113509</v>
+        <v>8.43142605611348</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039399</v>
+        <v>3.65324346203937</v>
       </c>
     </row>
     <row r="32">
@@ -3032,13 +3032,13 @@
         <v>135.8075835698293</v>
       </c>
       <c r="D32" t="n">
-        <v>123.3742458308778</v>
+        <v>123.3742458308777</v>
       </c>
       <c r="E32" t="n">
         <v>157.0809982502866</v>
       </c>
       <c r="F32" t="n">
-        <v>188.801335828664</v>
+        <v>188.8013358286639</v>
       </c>
       <c r="G32" t="n">
         <v>204.4403211379684</v>
@@ -3047,7 +3047,7 @@
         <v>132.6241196181794</v>
       </c>
       <c r="I32" t="n">
-        <v>26.61424514519996</v>
+        <v>26.61424514519993</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>13.12049326832843</v>
+        <v>13.1204932683284</v>
       </c>
       <c r="T32" t="n">
-        <v>8.068238935115176</v>
+        <v>8.068238935115147</v>
       </c>
       <c r="U32" t="n">
-        <v>35.75263264023377</v>
+        <v>35.75263264023374</v>
       </c>
       <c r="V32" t="n">
         <v>106.4818697978025</v>
       </c>
       <c r="W32" t="n">
-        <v>123.4985500144174</v>
+        <v>123.4985500144173</v>
       </c>
       <c r="X32" t="n">
         <v>145.3848004833566</v>
       </c>
       <c r="Y32" t="n">
-        <v>167.8876536071004</v>
+        <v>167.8876536071003</v>
       </c>
     </row>
     <row r="33">
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,7 +3150,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -3159,19 +3159,19 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0.5731434755569454</v>
+        <v>40.78736255489919</v>
       </c>
       <c r="U33" t="n">
-        <v>237.2280716788486</v>
+        <v>22.83015786749906</v>
       </c>
       <c r="V33" t="n">
-        <v>26.25100710405272</v>
+        <v>26.25100710405269</v>
       </c>
       <c r="W33" t="n">
-        <v>126.6279000078216</v>
+        <v>52.30666976566204</v>
       </c>
       <c r="X33" t="n">
-        <v>2.915000628121078</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y33" t="n">
         <v>223.3842861340256</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>21.04061512164695</v>
+        <v>21.04061512164692</v>
       </c>
       <c r="T34" t="n">
-        <v>9.363763442522506</v>
+        <v>9.363763442522478</v>
       </c>
       <c r="U34" t="n">
-        <v>74.25864467385713</v>
+        <v>74.25864467385711</v>
       </c>
       <c r="V34" t="n">
-        <v>30.71110137310038</v>
+        <v>30.71110137310035</v>
       </c>
       <c r="W34" t="n">
-        <v>75.9127932779858</v>
+        <v>75.91279327798577</v>
       </c>
       <c r="X34" t="n">
-        <v>7.521541596893002</v>
+        <v>7.521541596892973</v>
       </c>
       <c r="Y34" t="n">
-        <v>2.743359002818892</v>
+        <v>2.743359002818863</v>
       </c>
     </row>
     <row r="35">
@@ -3345,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="C36" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>154.7053254258408</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423158</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,13 +3396,13 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>130.6732688998541</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
         <v>0</v>
@@ -3579,13 +3579,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>11.25069593278078</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3624,7 +3624,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>2.763696251716744</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -3636,19 +3636,19 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3822,25 +3822,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>108.3373478300812</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3861,7 +3861,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -3879,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69242462046211</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>41.32464127103275</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="43">
@@ -4059,25 +4059,25 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,28 +4098,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>72.04326678770902</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>198.6666516074221</v>
       </c>
       <c r="W45" t="n">
         <v>25.69242462046211</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="C8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="D8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="E8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="F8" t="n">
-        <v>3.833742919262513</v>
+        <v>10.83591243155631</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="H8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="I8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="J8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="K8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.283519066783777</v>
       </c>
       <c r="L8" t="n">
-        <v>0.2813495544899843</v>
+        <v>7.104076250872104</v>
       </c>
       <c r="M8" t="n">
-        <v>3.763050291303539</v>
+        <v>10.58577698768566</v>
       </c>
       <c r="N8" t="n">
-        <v>7.244751028117094</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="O8" t="n">
-        <v>7.244751028117094</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="P8" t="n">
-        <v>7.244751028117094</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Q8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="S8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="T8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="U8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="V8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="W8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="X8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="Y8" t="n">
-        <v>7.065308212205419</v>
+        <v>14.06747772449921</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="C9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="D9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="E9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I9" t="n">
-        <v>3.833742919262513</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J9" t="n">
         <v>0.2813495544899843</v>
@@ -4887,16 +4887,16 @@
         <v>3.45619840956866</v>
       </c>
       <c r="L9" t="n">
-        <v>6.937899146382215</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="M9" t="n">
-        <v>10.41959988319577</v>
+        <v>3.622375514058549</v>
       </c>
       <c r="N9" t="n">
+        <v>7.104076250872104</v>
+      </c>
+      <c r="O9" t="n">
         <v>10.58577698768566</v>
-      </c>
-      <c r="O9" t="n">
-        <v>14.06747772449921</v>
       </c>
       <c r="P9" t="n">
         <v>14.06747772449921</v>
@@ -4905,28 +4905,28 @@
         <v>10.51508435972668</v>
       </c>
       <c r="R9" t="n">
-        <v>10.51508435972668</v>
+        <v>6.962690994954155</v>
       </c>
       <c r="S9" t="n">
-        <v>7.386136284035041</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="T9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="U9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="V9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="W9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="X9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.833742919262513</v>
+        <v>3.410297630181626</v>
       </c>
     </row>
     <row r="10">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>498.204051830584</v>
+        <v>753.944180304949</v>
       </c>
       <c r="C11" t="n">
-        <v>498.204051830584</v>
+        <v>580.1424292628906</v>
       </c>
       <c r="D11" t="n">
-        <v>336.9612277975676</v>
+        <v>418.8996052298742</v>
       </c>
       <c r="E11" t="n">
-        <v>336.9612277975676</v>
+        <v>228.5096607084224</v>
       </c>
       <c r="F11" t="n">
-        <v>146.5712832761158</v>
+        <v>228.5096607084224</v>
       </c>
       <c r="G11" t="n">
-        <v>146.5712832761158</v>
+        <v>228.5096607084224</v>
       </c>
       <c r="H11" t="n">
-        <v>15.07888360609898</v>
+        <v>57.92352981954566</v>
       </c>
       <c r="I11" t="n">
         <v>15.07888360609898</v>
@@ -5042,19 +5042,19 @@
         <v>115.4202186115223</v>
       </c>
       <c r="K11" t="n">
-        <v>162.1550303797901</v>
+        <v>115.4202186115223</v>
       </c>
       <c r="L11" t="n">
-        <v>208.8661887188265</v>
+        <v>302.0214032369971</v>
       </c>
       <c r="M11" t="n">
-        <v>395.4673733443014</v>
+        <v>488.622587862472</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7843166479635</v>
+        <v>563.9395311661341</v>
       </c>
       <c r="O11" t="n">
-        <v>504.9946117247458</v>
+        <v>666.4050806852707</v>
       </c>
       <c r="P11" t="n">
         <v>666.4050806852707</v>
@@ -5063,28 +5063,28 @@
         <v>753.944180304949</v>
       </c>
       <c r="R11" t="n">
-        <v>737.0313769686362</v>
+        <v>753.944180304949</v>
       </c>
       <c r="S11" t="n">
-        <v>687.1559797664777</v>
+        <v>753.944180304949</v>
       </c>
       <c r="T11" t="n">
-        <v>642.3838697695851</v>
+        <v>753.944180304949</v>
       </c>
       <c r="U11" t="n">
-        <v>642.3838697695851</v>
+        <v>753.944180304949</v>
       </c>
       <c r="V11" t="n">
-        <v>498.204051830584</v>
+        <v>753.944180304949</v>
       </c>
       <c r="W11" t="n">
-        <v>498.204051830584</v>
+        <v>753.944180304949</v>
       </c>
       <c r="X11" t="n">
-        <v>498.204051830584</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Y11" t="n">
-        <v>498.204051830584</v>
+        <v>753.944180304949</v>
       </c>
     </row>
     <row r="12">
@@ -5094,34 +5094,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.55836996847879</v>
+        <v>132.9990249305575</v>
       </c>
       <c r="C12" t="n">
-        <v>68.08727130703952</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="D12" t="n">
-        <v>68.08727130703952</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="E12" t="n">
-        <v>68.08727130703952</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="F12" t="n">
-        <v>68.08727130703952</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="G12" t="n">
-        <v>68.08727130703952</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="H12" t="n">
-        <v>68.08727130703952</v>
+        <v>123.5279262691182</v>
       </c>
       <c r="I12" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J12" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K12" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L12" t="n">
         <v>170.3626975743616</v>
@@ -5130,10 +5130,10 @@
         <v>352.0310247576277</v>
       </c>
       <c r="N12" t="n">
-        <v>538.6322093831027</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O12" t="n">
-        <v>670.3253369263739</v>
+        <v>670.3253369263738</v>
       </c>
       <c r="P12" t="n">
         <v>753.944180304949</v>
@@ -5142,28 +5142,28 @@
         <v>747.0010596398751</v>
       </c>
       <c r="R12" t="n">
-        <v>610.9183727939512</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="S12" t="n">
-        <v>597.3328742984925</v>
+        <v>556.6111151184233</v>
       </c>
       <c r="T12" t="n">
-        <v>560.1315677961031</v>
+        <v>519.409808616034</v>
       </c>
       <c r="U12" t="n">
-        <v>369.7416232746514</v>
+        <v>459.7266693945111</v>
       </c>
       <c r="V12" t="n">
-        <v>252.2820998693724</v>
+        <v>307.7227548314511</v>
       </c>
       <c r="W12" t="n">
-        <v>162.8247062052608</v>
+        <v>218.2653611673394</v>
       </c>
       <c r="X12" t="n">
-        <v>123.2578874275541</v>
+        <v>178.6985423896328</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.55836996847879</v>
+        <v>132.9990249305575</v>
       </c>
     </row>
     <row r="13">
@@ -5173,49 +5173,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15.5984783588262</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C13" t="n">
-        <v>15.5984783588262</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D13" t="n">
-        <v>48.22800082166822</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E13" t="n">
-        <v>48.22800082166822</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F13" t="n">
-        <v>48.22800082166822</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G13" t="n">
-        <v>48.22800082166822</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H13" t="n">
-        <v>60.42194861422747</v>
+        <v>27.27283139865823</v>
       </c>
       <c r="I13" t="n">
-        <v>73.57702862496905</v>
+        <v>27.27283139865823</v>
       </c>
       <c r="J13" t="n">
-        <v>130.8982171675545</v>
+        <v>27.27283139865823</v>
       </c>
       <c r="K13" t="n">
-        <v>130.8982171675545</v>
+        <v>70.12523889312385</v>
       </c>
       <c r="L13" t="n">
-        <v>130.8982171675545</v>
+        <v>70.12523889312385</v>
       </c>
       <c r="M13" t="n">
-        <v>130.8982171675545</v>
+        <v>221.5165733713929</v>
       </c>
       <c r="N13" t="n">
-        <v>290.8993951959067</v>
+        <v>381.5177513997451</v>
       </c>
       <c r="O13" t="n">
-        <v>351.8936825085029</v>
+        <v>520.7701116317056</v>
       </c>
       <c r="P13" t="n">
-        <v>470.3568865385318</v>
+        <v>520.7701116317056</v>
       </c>
       <c r="Q13" t="n">
         <v>520.7701116317056</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>379.2577812056662</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="C14" t="n">
-        <v>379.2577812056662</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="D14" t="n">
-        <v>218.0149571726498</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="E14" t="n">
-        <v>218.0149571726498</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="F14" t="n">
-        <v>218.0149571726498</v>
+        <v>376.0549590164276</v>
       </c>
       <c r="G14" t="n">
-        <v>27.62501265119813</v>
+        <v>185.6650144949758</v>
       </c>
       <c r="H14" t="n">
-        <v>27.62501265119813</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="J14" t="n">
-        <v>115.4202186115223</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="K14" t="n">
-        <v>285.1128385102957</v>
+        <v>115.4202186115222</v>
       </c>
       <c r="L14" t="n">
-        <v>471.7140231357705</v>
+        <v>162.1313769505586</v>
       </c>
       <c r="M14" t="n">
-        <v>644.4169419245046</v>
+        <v>348.7325615760335</v>
       </c>
       <c r="N14" t="n">
-        <v>719.7338852281667</v>
+        <v>535.3337462015083</v>
       </c>
       <c r="O14" t="n">
-        <v>753.944180304949</v>
+        <v>721.9349308269832</v>
       </c>
       <c r="P14" t="n">
-        <v>753.944180304949</v>
+        <v>721.9349308269832</v>
       </c>
       <c r="Q14" t="n">
         <v>753.944180304949</v>
       </c>
       <c r="R14" t="n">
-        <v>737.0313769686362</v>
+        <v>753.944180304949</v>
       </c>
       <c r="S14" t="n">
-        <v>687.1559797664777</v>
+        <v>753.944180304949</v>
       </c>
       <c r="T14" t="n">
-        <v>642.3838697695851</v>
+        <v>753.944180304949</v>
       </c>
       <c r="U14" t="n">
-        <v>569.647725727118</v>
+        <v>753.944180304949</v>
       </c>
       <c r="V14" t="n">
-        <v>569.647725727118</v>
+        <v>753.944180304949</v>
       </c>
       <c r="W14" t="n">
-        <v>569.647725727118</v>
+        <v>753.944180304949</v>
       </c>
       <c r="X14" t="n">
-        <v>569.647725727118</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Y14" t="n">
-        <v>569.647725727118</v>
+        <v>753.944180304949</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>262.5861561829178</v>
+        <v>186.007412631498</v>
       </c>
       <c r="C15" t="n">
-        <v>253.1150575214785</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="D15" t="n">
-        <v>253.1150575214785</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="E15" t="n">
-        <v>253.1150575214785</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="F15" t="n">
-        <v>92.68734123872258</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="G15" t="n">
-        <v>92.68734123872258</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="H15" t="n">
-        <v>15.07888360609898</v>
+        <v>176.5363139700587</v>
       </c>
       <c r="I15" t="n">
-        <v>15.07888360609898</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="J15" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K15" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L15" t="n">
         <v>170.3626975743616</v>
@@ -5379,28 +5379,28 @@
         <v>747.0010596398751</v>
       </c>
       <c r="R15" t="n">
-        <v>610.9183727939512</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="S15" t="n">
-        <v>597.3328742984925</v>
+        <v>733.4155611444162</v>
       </c>
       <c r="T15" t="n">
-        <v>560.1315677961031</v>
+        <v>614.2596295446126</v>
       </c>
       <c r="U15" t="n">
-        <v>500.4484285745803</v>
+        <v>423.8696850231608</v>
       </c>
       <c r="V15" t="n">
-        <v>437.3098860838114</v>
+        <v>360.7311425323919</v>
       </c>
       <c r="W15" t="n">
-        <v>347.8524924196997</v>
+        <v>271.2737488682801</v>
       </c>
       <c r="X15" t="n">
-        <v>308.2856736419931</v>
+        <v>231.7069300905734</v>
       </c>
       <c r="Y15" t="n">
-        <v>262.5861561829178</v>
+        <v>186.007412631498</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.07888360609898</v>
+        <v>248.2529522793419</v>
       </c>
       <c r="C16" t="n">
-        <v>15.07888360609898</v>
+        <v>248.2529522793419</v>
       </c>
       <c r="D16" t="n">
-        <v>15.07888360609898</v>
+        <v>280.8824747421839</v>
       </c>
       <c r="E16" t="n">
-        <v>15.07888360609898</v>
+        <v>280.8824747421839</v>
       </c>
       <c r="F16" t="n">
-        <v>15.07888360609898</v>
+        <v>319.7052075569673</v>
       </c>
       <c r="G16" t="n">
-        <v>15.07888360609898</v>
+        <v>319.7052075569673</v>
       </c>
       <c r="H16" t="n">
-        <v>15.07888360609898</v>
+        <v>319.7052075569673</v>
       </c>
       <c r="I16" t="n">
-        <v>15.07888360609898</v>
+        <v>319.7052075569673</v>
       </c>
       <c r="J16" t="n">
-        <v>15.07888360609898</v>
+        <v>319.7052075569673</v>
       </c>
       <c r="K16" t="n">
-        <v>52.64014424819015</v>
+        <v>319.7052075569673</v>
       </c>
       <c r="L16" t="n">
-        <v>52.64014424819015</v>
+        <v>464.2311631629363</v>
       </c>
       <c r="M16" t="n">
-        <v>52.64014424819015</v>
+        <v>464.2311631629363</v>
       </c>
       <c r="N16" t="n">
-        <v>212.6413222765423</v>
+        <v>464.2311631629363</v>
       </c>
       <c r="O16" t="n">
-        <v>351.8936825085029</v>
+        <v>603.4835233948968</v>
       </c>
       <c r="P16" t="n">
-        <v>470.3568865385318</v>
+        <v>721.9467274249256</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317056</v>
+        <v>753.944180304949</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429517</v>
+        <v>728.399283816195</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566331</v>
+        <v>670.5237635298763</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461977</v>
+        <v>624.4430429194409</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536061</v>
+        <v>512.8119372268493</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365264</v>
+        <v>445.1682490097696</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804735</v>
+        <v>331.8662861412904</v>
       </c>
       <c r="X16" t="n">
-        <v>54.4723270047125</v>
+        <v>287.6463956779555</v>
       </c>
       <c r="Y16" t="n">
-        <v>15.07888360609898</v>
+        <v>248.2529522793419</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417497</v>
+        <v>463.3662739417493</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731532</v>
+        <v>410.0798406731526</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135982</v>
+        <v>369.3523344135979</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879735</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336853</v>
+        <v>187.7621275336857</v>
       </c>
       <c r="G17" t="n">
-        <v>65.14969672151395</v>
+        <v>65.14969672151398</v>
       </c>
       <c r="H17" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>70.95425539993046</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="J17" t="n">
-        <v>70.95425539993046</v>
+        <v>113.7311219829631</v>
       </c>
       <c r="K17" t="n">
-        <v>70.95425539993046</v>
+        <v>113.7311219829631</v>
       </c>
       <c r="L17" t="n">
-        <v>117.6654137389669</v>
+        <v>160.4422803219995</v>
       </c>
       <c r="M17" t="n">
-        <v>198.5165373523122</v>
+        <v>241.2934039353448</v>
       </c>
       <c r="N17" t="n">
-        <v>273.8334806559743</v>
+        <v>427.8945885608197</v>
       </c>
       <c r="O17" t="n">
-        <v>308.0437757327566</v>
+        <v>462.1048836376019</v>
       </c>
       <c r="P17" t="n">
-        <v>494.6449603582314</v>
+        <v>462.1048836376019</v>
       </c>
       <c r="Q17" t="n">
-        <v>563.6457080374512</v>
+        <v>462.1048836376019</v>
       </c>
       <c r="R17" t="n">
-        <v>563.6457080374512</v>
+        <v>563.6457080374514</v>
       </c>
       <c r="S17" t="n">
-        <v>632.8798941893855</v>
+        <v>632.8798941893856</v>
       </c>
       <c r="T17" t="n">
-        <v>707.1158121312009</v>
+        <v>707.115812131201</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9441803049489</v>
+        <v>753.944180304949</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394098</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985022</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X17" t="n">
-        <v>626.4662243515951</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342397</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="18">
@@ -5568,25 +5568,25 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>366.2211705969714</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="C18" t="n">
-        <v>366.2211705969714</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="D18" t="n">
-        <v>366.2211705969714</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="E18" t="n">
-        <v>366.2211705969714</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="F18" t="n">
-        <v>303.54221790693</v>
+        <v>260.1007119897436</v>
       </c>
       <c r="G18" t="n">
-        <v>303.54221790693</v>
+        <v>109.8536032620477</v>
       </c>
       <c r="H18" t="n">
-        <v>176.5363139700587</v>
+        <v>109.8536032620477</v>
       </c>
       <c r="I18" t="n">
         <v>68.08727130703952</v>
@@ -5595,7 +5595,7 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K18" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936456</v>
       </c>
       <c r="L18" t="n">
         <v>170.3626975743616</v>
@@ -5604,40 +5604,40 @@
         <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6322093831025</v>
+        <v>538.6322093831026</v>
       </c>
       <c r="O18" t="n">
-        <v>670.3253369263737</v>
+        <v>670.3253369263738</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049489</v>
+        <v>753.944180304949</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0010596398749</v>
+        <v>747.0010596398751</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0010596398749</v>
+        <v>610.9183727939512</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0010596398749</v>
+        <v>610.9183727939512</v>
       </c>
       <c r="T18" t="n">
-        <v>747.0010596398749</v>
+        <v>610.9183727939512</v>
       </c>
       <c r="U18" t="n">
-        <v>747.0010596398749</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="V18" t="n">
-        <v>747.0010596398749</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="W18" t="n">
-        <v>556.6111151184232</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="X18" t="n">
-        <v>366.2211705969714</v>
+        <v>420.5284282724995</v>
       </c>
       <c r="Y18" t="n">
-        <v>366.2211705969714</v>
+        <v>420.5284282724995</v>
       </c>
     </row>
     <row r="19">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417495</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731529</v>
+        <v>410.0798406731525</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135982</v>
+        <v>369.3523344135978</v>
       </c>
       <c r="E20" t="n">
-        <v>294.577603487974</v>
+        <v>294.5776034879735</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336857</v>
+        <v>187.7621275336853</v>
       </c>
       <c r="G20" t="n">
-        <v>65.14969672151392</v>
+        <v>65.149696721514</v>
       </c>
       <c r="H20" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993046</v>
+        <v>38.4141786793012</v>
       </c>
       <c r="J20" t="n">
-        <v>257.5554400254053</v>
+        <v>38.4141786793012</v>
       </c>
       <c r="K20" t="n">
-        <v>257.5554400254053</v>
+        <v>38.4141786793012</v>
       </c>
       <c r="L20" t="n">
-        <v>304.2665983644417</v>
+        <v>85.1253370183376</v>
       </c>
       <c r="M20" t="n">
-        <v>385.117721977787</v>
+        <v>165.9764606316829</v>
       </c>
       <c r="N20" t="n">
-        <v>460.4346652814492</v>
+        <v>241.293403935345</v>
       </c>
       <c r="O20" t="n">
-        <v>494.6449603582314</v>
+        <v>275.5036990121272</v>
       </c>
       <c r="P20" t="n">
-        <v>681.2461449837062</v>
+        <v>462.1048836376021</v>
       </c>
       <c r="Q20" t="n">
-        <v>681.2461449837062</v>
+        <v>462.1048836376021</v>
       </c>
       <c r="R20" t="n">
-        <v>753.944180304949</v>
+        <v>563.6457080374516</v>
       </c>
       <c r="S20" t="n">
-        <v>753.944180304949</v>
+        <v>632.8798941893858</v>
       </c>
       <c r="T20" t="n">
-        <v>753.944180304949</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="U20" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394096</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W20" t="n">
         <v>689.4266140985019</v>
       </c>
       <c r="X20" t="n">
-        <v>626.4662243515949</v>
+        <v>626.4662243515947</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342395</v>
+        <v>540.7756799342394</v>
       </c>
     </row>
     <row r="21">
@@ -5805,25 +5805,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>516.1956969647908</v>
+        <v>228.5149875897954</v>
       </c>
       <c r="C21" t="n">
-        <v>326.7834226977545</v>
+        <v>228.5149875897954</v>
       </c>
       <c r="D21" t="n">
-        <v>326.7834226977545</v>
+        <v>228.5149875897954</v>
       </c>
       <c r="E21" t="n">
-        <v>326.7834226977545</v>
+        <v>228.5149875897954</v>
       </c>
       <c r="F21" t="n">
-        <v>326.7834226977545</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="G21" t="n">
-        <v>176.5363139700587</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5363139700587</v>
+        <v>68.08727130703952</v>
       </c>
       <c r="I21" t="n">
         <v>68.08727130703952</v>
@@ -5841,40 +5841,40 @@
         <v>352.0310247576277</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6322093831026</v>
+        <v>538.6322093831028</v>
       </c>
       <c r="O21" t="n">
-        <v>670.3253369263738</v>
+        <v>670.3253369263739</v>
       </c>
       <c r="P21" t="n">
-        <v>753.944180304949</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0010596398751</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0010596398751</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0010596398751</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="T21" t="n">
-        <v>556.6111151184233</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="U21" t="n">
-        <v>556.6111151184233</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="V21" t="n">
-        <v>556.6111151184233</v>
+        <v>609.294876632699</v>
       </c>
       <c r="W21" t="n">
-        <v>516.1956969647908</v>
+        <v>418.9049321112473</v>
       </c>
       <c r="X21" t="n">
-        <v>516.1956969647908</v>
+        <v>418.9049321112473</v>
       </c>
       <c r="Y21" t="n">
-        <v>516.1956969647908</v>
+        <v>228.5149875897954</v>
       </c>
     </row>
     <row r="22">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417492</v>
+        <v>463.3662739417496</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731526</v>
+        <v>410.0798406731529</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135979</v>
+        <v>369.3523344135982</v>
       </c>
       <c r="E23" t="n">
-        <v>294.5776034879737</v>
+        <v>294.5776034879739</v>
       </c>
       <c r="F23" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336856</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151392</v>
+        <v>65.14969672151398</v>
       </c>
       <c r="H23" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="I23" t="n">
-        <v>37.90222970904341</v>
+        <v>70.9542553999304</v>
       </c>
       <c r="J23" t="n">
-        <v>224.5034143345183</v>
+        <v>257.5554400254053</v>
       </c>
       <c r="K23" t="n">
-        <v>411.1045989599932</v>
+        <v>257.5554400254053</v>
       </c>
       <c r="L23" t="n">
-        <v>457.8157572990295</v>
+        <v>304.2665983644417</v>
       </c>
       <c r="M23" t="n">
-        <v>644.4169419245044</v>
+        <v>385.117721977787</v>
       </c>
       <c r="N23" t="n">
-        <v>719.7338852281665</v>
+        <v>460.434665281449</v>
       </c>
       <c r="O23" t="n">
-        <v>753.9441803049488</v>
+        <v>494.6449603582313</v>
       </c>
       <c r="P23" t="n">
-        <v>753.9441803049488</v>
+        <v>494.6449603582313</v>
       </c>
       <c r="Q23" t="n">
-        <v>753.9441803049488</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="R23" t="n">
-        <v>753.9441803049488</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="S23" t="n">
-        <v>753.9441803049488</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="T23" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049488</v>
+        <v>753.9441803049493</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394095</v>
+        <v>730.2796801394101</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985017</v>
+        <v>689.4266140985022</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515946</v>
+        <v>626.4662243515951</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342393</v>
+        <v>540.7756799342397</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>526.3763045198509</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C24" t="n">
-        <v>336.9640302528146</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D24" t="n">
-        <v>336.9640302528146</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E24" t="n">
-        <v>336.9640302528146</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F24" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G24" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H24" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I24" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J24" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K24" t="n">
-        <v>53.03690762936458</v>
+        <v>53.03690762936457</v>
       </c>
       <c r="L24" t="n">
         <v>170.3626975743616</v>
@@ -6078,40 +6078,40 @@
         <v>352.0310247576277</v>
       </c>
       <c r="N24" t="n">
-        <v>538.6322093831026</v>
+        <v>538.6322093831027</v>
       </c>
       <c r="O24" t="n">
-        <v>670.3253369263738</v>
+        <v>670.3253369263739</v>
       </c>
       <c r="P24" t="n">
         <v>753.944180304949</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0010596398751</v>
+        <v>753.944180304949</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0010596398751</v>
+        <v>753.944180304949</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0010596398751</v>
+        <v>753.944180304949</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0010596398751</v>
+        <v>753.944180304949</v>
       </c>
       <c r="U24" t="n">
-        <v>556.6111151184233</v>
+        <v>753.944180304949</v>
       </c>
       <c r="V24" t="n">
-        <v>556.6111151184233</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="W24" t="n">
-        <v>556.6111151184233</v>
+        <v>373.1642912620454</v>
       </c>
       <c r="X24" t="n">
-        <v>556.6111151184233</v>
+        <v>182.7743467405936</v>
       </c>
       <c r="Y24" t="n">
-        <v>526.3763045198509</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="25">
@@ -6203,31 +6203,31 @@
         <v>1020.877441161906</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073099</v>
+        <v>882.7789886073105</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617561</v>
+        <v>757.2394630617566</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501327</v>
+        <v>597.6527128501332</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098454</v>
+        <v>406.0252176098458</v>
       </c>
       <c r="G26" t="n">
-        <v>198.6007675116748</v>
+        <v>198.600767511675</v>
       </c>
       <c r="H26" t="n">
-        <v>63.71793511026087</v>
+        <v>63.7179351102609</v>
       </c>
       <c r="I26" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476702</v>
       </c>
       <c r="K26" t="n">
-        <v>375.9353445940055</v>
+        <v>375.9353445940057</v>
       </c>
       <c r="L26" t="n">
         <v>633.9996519916497</v>
@@ -6236,10 +6236,10 @@
         <v>926.2039246636027</v>
       </c>
       <c r="N26" t="n">
-        <v>1212.874017025873</v>
+        <v>1212.874017025872</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161263</v>
+        <v>1458.437461161262</v>
       </c>
       <c r="P26" t="n">
         <v>1654.84073296935</v>
@@ -6257,19 +6257,19 @@
         <v>1772.548289510106</v>
       </c>
       <c r="U26" t="n">
-        <v>1735.515443955101</v>
+        <v>1735.515443955102</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503562</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W26" t="n">
         <v>1501.373839176656</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.601430143749</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y26" t="n">
-        <v>1183.098866440395</v>
+        <v>1183.098866440396</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>438.7641622454174</v>
+        <v>370.2591041122384</v>
       </c>
       <c r="C27" t="n">
-        <v>249.3518879783811</v>
+        <v>370.2591041122384</v>
       </c>
       <c r="D27" t="n">
-        <v>249.3518879783811</v>
+        <v>209.4789878732702</v>
       </c>
       <c r="E27" t="n">
-        <v>249.3518879783811</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="F27" t="n">
-        <v>88.92417169562518</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="G27" t="n">
-        <v>88.92417169562518</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="H27" t="n">
-        <v>88.92417169562518</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="I27" t="n">
-        <v>88.92417169562518</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="J27" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="K27" t="n">
-        <v>73.87380801795024</v>
+        <v>73.87380801795022</v>
       </c>
       <c r="L27" t="n">
-        <v>191.1995979629473</v>
+        <v>191.1995979629472</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8679251462135</v>
+        <v>372.8679251462134</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7643619459217</v>
+        <v>577.7643619459216</v>
       </c>
       <c r="O27" t="n">
-        <v>709.4574894891929</v>
+        <v>709.4574894891928</v>
       </c>
       <c r="P27" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1332122026942</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1332122026942</v>
+        <v>706.4305053960973</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1332122026942</v>
+        <v>706.4305053960973</v>
       </c>
       <c r="T27" t="n">
-        <v>784.6352041877674</v>
+        <v>704.9324973811705</v>
       </c>
       <c r="U27" t="n">
-        <v>760.6553634537072</v>
+        <v>680.9526566471103</v>
       </c>
       <c r="V27" t="n">
-        <v>517.5756453573413</v>
+        <v>653.5174126438039</v>
       </c>
       <c r="W27" t="n">
-        <v>452.6239015072741</v>
+        <v>599.7633174671548</v>
       </c>
       <c r="X27" t="n">
-        <v>448.7603812170301</v>
+        <v>380.2553230838512</v>
       </c>
       <c r="Y27" t="n">
-        <v>438.7641622454174</v>
+        <v>370.2591041122384</v>
       </c>
     </row>
     <row r="28">
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
       <c r="C28" t="n">
-        <v>35.91578399468465</v>
+        <v>82.47632389103971</v>
       </c>
       <c r="D28" t="n">
-        <v>103.5381093050888</v>
+        <v>82.47632389103971</v>
       </c>
       <c r="E28" t="n">
-        <v>103.5381093050888</v>
+        <v>82.47632389103971</v>
       </c>
       <c r="F28" t="n">
-        <v>103.5381093050888</v>
+        <v>82.47632389103971</v>
       </c>
       <c r="G28" t="n">
-        <v>103.5381093050888</v>
+        <v>82.47632389103971</v>
       </c>
       <c r="H28" t="n">
-        <v>103.5381093050888</v>
+        <v>82.47632389103971</v>
       </c>
       <c r="I28" t="n">
-        <v>103.5381093050888</v>
+        <v>130.6242067493434</v>
       </c>
       <c r="J28" t="n">
-        <v>103.5381093050888</v>
+        <v>222.9381981394909</v>
       </c>
       <c r="K28" t="n">
-        <v>103.5381093050888</v>
+        <v>222.9381981394909</v>
       </c>
       <c r="L28" t="n">
-        <v>103.5381093050888</v>
+        <v>222.9381981394909</v>
       </c>
       <c r="M28" t="n">
-        <v>103.5381093050888</v>
+        <v>222.9381981394909</v>
       </c>
       <c r="N28" t="n">
-        <v>180.7329981785631</v>
+        <v>222.9381981394909</v>
       </c>
       <c r="O28" t="n">
-        <v>180.7329981785631</v>
+        <v>222.9381981394909</v>
       </c>
       <c r="P28" t="n">
-        <v>180.7329981785631</v>
+        <v>222.9381981394909</v>
       </c>
       <c r="Q28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="R28" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192992</v>
       </c>
       <c r="S28" t="n">
-        <v>243.966804320443</v>
+        <v>243.9668043204432</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974702</v>
+        <v>233.5893821974704</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923413</v>
+        <v>157.6615749923414</v>
       </c>
       <c r="V28" t="n">
         <v>125.7211852627243</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170779</v>
+        <v>48.12252088170784</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583555</v>
+        <v>39.60592890583558</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.91578399468465</v>
+        <v>35.91578399468464</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6437,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1020.877441161906</v>
+        <v>1020.877441161907</v>
       </c>
       <c r="C29" t="n">
-        <v>882.7789886073105</v>
+        <v>882.7789886073115</v>
       </c>
       <c r="D29" t="n">
-        <v>757.2394630617566</v>
+        <v>757.2394630617576</v>
       </c>
       <c r="E29" t="n">
-        <v>597.6527128501332</v>
+        <v>597.6527128501343</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098459</v>
+        <v>406.025217609847</v>
       </c>
       <c r="G29" t="n">
-        <v>198.6007675116753</v>
+        <v>198.6007675116764</v>
       </c>
       <c r="H29" t="n">
-        <v>63.71793511026112</v>
+        <v>63.71793511026085</v>
       </c>
       <c r="I29" t="n">
         <v>35.91578399468465</v>
@@ -6467,22 +6467,22 @@
         <v>375.9353445940055</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916496</v>
+        <v>633.9996519916497</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636026</v>
+        <v>926.2039246636028</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.874017025872</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O29" t="n">
-        <v>1458.437461161263</v>
+        <v>1458.437461161262</v>
       </c>
       <c r="P29" t="n">
         <v>1654.84073296935</v>
       </c>
       <c r="Q29" t="n">
-        <v>1777.372635436591</v>
+        <v>1777.37263543659</v>
       </c>
       <c r="R29" t="n">
         <v>1795.789199734232</v>
@@ -6491,22 +6491,22 @@
         <v>1781.617101019536</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.548289510105</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U29" t="n">
-        <v>1735.515443955101</v>
+        <v>1735.515443955102</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.038924503563</v>
+        <v>1627.038924503564</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.373839176656</v>
+        <v>1501.373839176657</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.60143014375</v>
+        <v>1353.601430143751</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440395</v>
+        <v>1183.098866440396</v>
       </c>
     </row>
     <row r="30">
@@ -6516,28 +6516,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>665.6062850118951</v>
+        <v>672.5494056769691</v>
       </c>
       <c r="C30" t="n">
-        <v>665.6062850118951</v>
+        <v>672.5494056769691</v>
       </c>
       <c r="D30" t="n">
-        <v>504.8261687729268</v>
+        <v>511.7692894380008</v>
       </c>
       <c r="E30" t="n">
-        <v>331.2629648943413</v>
+        <v>511.7692894380008</v>
       </c>
       <c r="F30" t="n">
-        <v>170.8352486115854</v>
+        <v>351.3415731552449</v>
       </c>
       <c r="G30" t="n">
-        <v>170.8352486115854</v>
+        <v>201.094464427549</v>
       </c>
       <c r="H30" t="n">
-        <v>170.8352486115854</v>
+        <v>144.3648266577038</v>
       </c>
       <c r="I30" t="n">
-        <v>88.92417169562519</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J30" t="n">
         <v>35.91578399468465</v>
@@ -6546,46 +6546,46 @@
         <v>73.87380801795024</v>
       </c>
       <c r="L30" t="n">
-        <v>191.1995979629473</v>
+        <v>191.1995979629472</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462135</v>
+        <v>372.8679251462134</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7643619459217</v>
+        <v>577.7643619459216</v>
       </c>
       <c r="O30" t="n">
-        <v>709.4574894891929</v>
+        <v>709.4574894891928</v>
       </c>
       <c r="P30" t="n">
-        <v>793.0763328677681</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1332122026942</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1332122026942</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1332122026942</v>
+        <v>793.0763328677679</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6352041877674</v>
+        <v>791.5783248528412</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6553634537072</v>
+        <v>767.598484118781</v>
       </c>
       <c r="V30" t="n">
-        <v>733.2201194504009</v>
+        <v>740.1632401154748</v>
       </c>
       <c r="W30" t="n">
-        <v>679.4660242737518</v>
+        <v>686.4091449388258</v>
       </c>
       <c r="X30" t="n">
-        <v>675.6025039835079</v>
+        <v>682.5456246485818</v>
       </c>
       <c r="Y30" t="n">
-        <v>665.6062850118951</v>
+        <v>672.5494056769691</v>
       </c>
     </row>
     <row r="31">
@@ -6595,73 +6595,73 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.91578399468465</v>
+        <v>43.65114608910972</v>
       </c>
       <c r="C31" t="n">
-        <v>61.18879544445048</v>
+        <v>43.65114608910972</v>
       </c>
       <c r="D31" t="n">
-        <v>61.18879544445048</v>
+        <v>111.2734713995139</v>
       </c>
       <c r="E31" t="n">
-        <v>61.18879544445048</v>
+        <v>182.3672406580189</v>
       </c>
       <c r="F31" t="n">
-        <v>61.18879544445048</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="G31" t="n">
-        <v>61.18879544445048</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="H31" t="n">
-        <v>61.18879544445048</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="I31" t="n">
-        <v>61.18879544445048</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="J31" t="n">
-        <v>61.18879544445048</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="K31" t="n">
-        <v>61.18879544445048</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="L31" t="n">
-        <v>61.18879544445048</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="M31" t="n">
-        <v>61.18879544445048</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="N31" t="n">
-        <v>256.1827763203647</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="O31" t="n">
-        <v>256.1827763203647</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="P31" t="n">
-        <v>256.1827763203647</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="Q31" t="n">
-        <v>256.1827763203647</v>
+        <v>256.1827763203644</v>
       </c>
       <c r="R31" t="n">
-        <v>266.139026119299</v>
+        <v>266.1390261192988</v>
       </c>
       <c r="S31" t="n">
-        <v>243.966804320443</v>
+        <v>243.9668043204428</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974703</v>
+        <v>233.5893821974701</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923413</v>
+        <v>157.6615749923412</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627243</v>
+        <v>125.7211852627242</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170779</v>
+        <v>48.12252088170773</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583556</v>
+        <v>39.60592890583553</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91578399468465</v>
@@ -6674,31 +6674,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1014.162565128078</v>
+        <v>1014.162565128079</v>
       </c>
       <c r="C32" t="n">
-        <v>876.9831877848162</v>
+        <v>876.9831877848168</v>
       </c>
       <c r="D32" t="n">
-        <v>752.3627374505962</v>
+        <v>752.3627374505967</v>
       </c>
       <c r="E32" t="n">
-        <v>593.6950624503068</v>
+        <v>593.6950624503072</v>
       </c>
       <c r="F32" t="n">
-        <v>402.9866424213532</v>
+        <v>402.9866424213537</v>
       </c>
       <c r="G32" t="n">
         <v>196.4812675345173</v>
       </c>
       <c r="H32" t="n">
-        <v>62.51751034443706</v>
+        <v>62.51751034443701</v>
       </c>
       <c r="I32" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="J32" t="n">
-        <v>171.8693579078083</v>
+        <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
         <v>377.4555662687721</v>
@@ -6737,7 +6737,7 @@
         <v>1616.6477476244</v>
       </c>
       <c r="W32" t="n">
-        <v>1491.901737508826</v>
+        <v>1491.901737508827</v>
       </c>
       <c r="X32" t="n">
         <v>1345.048403687254</v>
@@ -6753,34 +6753,34 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>162.640338377066</v>
+        <v>197.0918648041544</v>
       </c>
       <c r="C33" t="n">
-        <v>162.640338377066</v>
+        <v>197.0918648041544</v>
       </c>
       <c r="D33" t="n">
-        <v>162.640338377066</v>
+        <v>197.0918648041544</v>
       </c>
       <c r="E33" t="n">
-        <v>162.640338377066</v>
+        <v>197.0918648041544</v>
       </c>
       <c r="F33" t="n">
-        <v>162.640338377066</v>
+        <v>197.0918648041544</v>
       </c>
       <c r="G33" t="n">
-        <v>162.640338377066</v>
+        <v>197.0918648041544</v>
       </c>
       <c r="H33" t="n">
-        <v>35.63443444019467</v>
+        <v>197.0918648041544</v>
       </c>
       <c r="I33" t="n">
-        <v>35.63443444019467</v>
+        <v>88.6428221411352</v>
       </c>
       <c r="J33" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59245846346026</v>
+        <v>73.59245846346025</v>
       </c>
       <c r="L33" t="n">
         <v>190.9182484084573</v>
@@ -6807,22 +6807,22 @@
         <v>785.851862648204</v>
       </c>
       <c r="T33" t="n">
-        <v>785.2729298446111</v>
+        <v>744.6525065321442</v>
       </c>
       <c r="U33" t="n">
-        <v>545.6486150174912</v>
+        <v>721.5917410094179</v>
       </c>
       <c r="V33" t="n">
-        <v>519.1324462255188</v>
+        <v>695.0755722174455</v>
       </c>
       <c r="W33" t="n">
-        <v>391.2254765206485</v>
+        <v>642.2405522521303</v>
       </c>
       <c r="X33" t="n">
-        <v>388.2810314417383</v>
+        <v>422.7325578688267</v>
       </c>
       <c r="Y33" t="n">
-        <v>162.640338377066</v>
+        <v>197.0918648041544</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
       <c r="C34" t="n">
-        <v>35.63443444019467</v>
+        <v>83.0957599511781</v>
       </c>
       <c r="D34" t="n">
-        <v>35.63443444019467</v>
+        <v>117.020161148225</v>
       </c>
       <c r="E34" t="n">
-        <v>35.63443444019467</v>
+        <v>117.020161148225</v>
       </c>
       <c r="F34" t="n">
-        <v>35.63443444019467</v>
+        <v>117.020161148225</v>
       </c>
       <c r="G34" t="n">
-        <v>35.63443444019467</v>
+        <v>162.260301116545</v>
       </c>
       <c r="H34" t="n">
-        <v>83.72197069494432</v>
+        <v>162.260301116545</v>
       </c>
       <c r="I34" t="n">
-        <v>83.72197069494432</v>
+        <v>162.260301116545</v>
       </c>
       <c r="J34" t="n">
-        <v>83.72197069494432</v>
+        <v>162.260301116545</v>
       </c>
       <c r="K34" t="n">
-        <v>83.72197069494432</v>
+        <v>162.260301116545</v>
       </c>
       <c r="L34" t="n">
-        <v>83.72197069494432</v>
+        <v>162.260301116545</v>
       </c>
       <c r="M34" t="n">
-        <v>105.0673575932528</v>
+        <v>162.260301116545</v>
       </c>
       <c r="N34" t="n">
-        <v>105.0673575932528</v>
+        <v>162.260301116545</v>
       </c>
       <c r="O34" t="n">
-        <v>105.0673575932528</v>
+        <v>162.260301116545</v>
       </c>
       <c r="P34" t="n">
-        <v>259.4241500854721</v>
+        <v>162.260301116545</v>
       </c>
       <c r="Q34" t="n">
-        <v>259.4241500854721</v>
+        <v>248.5671146719093</v>
       </c>
       <c r="R34" t="n">
-        <v>259.4241500854721</v>
+        <v>259.4241500854719</v>
       </c>
       <c r="S34" t="n">
-        <v>238.17100349795</v>
+        <v>238.1710034979498</v>
       </c>
       <c r="T34" t="n">
-        <v>228.7126565863111</v>
+        <v>228.7126565863109</v>
       </c>
       <c r="U34" t="n">
-        <v>153.703924592516</v>
+        <v>153.7039245925158</v>
       </c>
       <c r="V34" t="n">
         <v>122.6826100742327</v>
       </c>
       <c r="W34" t="n">
-        <v>46.00302090455011</v>
+        <v>46.00302090455005</v>
       </c>
       <c r="X34" t="n">
-        <v>38.40550414001173</v>
+        <v>38.40550414001169</v>
       </c>
       <c r="Y34" t="n">
-        <v>35.63443444019467</v>
+        <v>35.63443444019466</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>623.0203756379706</v>
+        <v>623.0203756379701</v>
       </c>
       <c r="C35" t="n">
-        <v>544.0845948837514</v>
+        <v>544.0845948837509</v>
       </c>
       <c r="D35" t="n">
-        <v>477.7077411385744</v>
+        <v>477.707741138574</v>
       </c>
       <c r="E35" t="n">
-        <v>377.2836627273275</v>
+        <v>377.2836627273271</v>
       </c>
       <c r="F35" t="n">
-        <v>244.8188392874172</v>
+        <v>244.8188392874163</v>
       </c>
       <c r="G35" t="n">
-        <v>96.55706098962318</v>
+        <v>96.55706098962317</v>
       </c>
       <c r="H35" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I35" t="n">
-        <v>20.83690038858567</v>
+        <v>51.57334671175848</v>
       </c>
       <c r="J35" t="n">
-        <v>214.1563728731201</v>
+        <v>244.892819196293</v>
       </c>
       <c r="K35" t="n">
-        <v>214.1563728731201</v>
+        <v>502.7494615050405</v>
       </c>
       <c r="L35" t="n">
-        <v>416.5608138970681</v>
+        <v>549.460619844077</v>
       </c>
       <c r="M35" t="n">
-        <v>497.4119375104134</v>
+        <v>807.3172621528245</v>
       </c>
       <c r="N35" t="n">
-        <v>572.7288808140755</v>
+        <v>936.8482891782546</v>
       </c>
       <c r="O35" t="n">
-        <v>606.9391758908578</v>
+        <v>971.0585842550369</v>
       </c>
       <c r="P35" t="n">
-        <v>861.327782330494</v>
+        <v>971.0585842550369</v>
       </c>
       <c r="Q35" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550369</v>
       </c>
       <c r="R35" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550369</v>
       </c>
       <c r="S35" t="n">
-        <v>1041.845019429283</v>
+        <v>971.0585842550369</v>
       </c>
       <c r="T35" t="n">
-        <v>1041.845019429283</v>
+        <v>1020.155576726194</v>
       </c>
       <c r="U35" t="n">
         <v>1041.845019429283</v>
       </c>
       <c r="V35" t="n">
-        <v>992.5311717781212</v>
+        <v>992.5311717781208</v>
       </c>
       <c r="W35" t="n">
-        <v>926.0287582515907</v>
+        <v>926.0287582515903</v>
       </c>
       <c r="X35" t="n">
-        <v>837.4190210190611</v>
+        <v>837.4190210190607</v>
       </c>
       <c r="Y35" t="n">
-        <v>726.0791291160832</v>
+        <v>726.0791291160828</v>
       </c>
     </row>
     <row r="36">
@@ -6990,13 +6990,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>182.2943307525454</v>
+        <v>527.974610500229</v>
       </c>
       <c r="C36" t="n">
-        <v>182.2943307525454</v>
+        <v>338.5623362331927</v>
       </c>
       <c r="D36" t="n">
-        <v>182.2943307525454</v>
+        <v>338.5623362331927</v>
       </c>
       <c r="E36" t="n">
         <v>182.2943307525454</v>
@@ -7011,55 +7011,55 @@
         <v>182.2943307525454</v>
       </c>
       <c r="I36" t="n">
-        <v>73.84528808952621</v>
+        <v>73.84528808952619</v>
       </c>
       <c r="J36" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185126</v>
+        <v>58.79492441185124</v>
       </c>
       <c r="L36" t="n">
-        <v>176.1207143568483</v>
+        <v>176.1207143568482</v>
       </c>
       <c r="M36" t="n">
-        <v>357.7890415401145</v>
+        <v>357.7890415401144</v>
       </c>
       <c r="N36" t="n">
-        <v>562.6854783398227</v>
+        <v>562.6854783398226</v>
       </c>
       <c r="O36" t="n">
-        <v>694.3786058830939</v>
+        <v>694.3786058830938</v>
       </c>
       <c r="P36" t="n">
-        <v>777.9974492616691</v>
+        <v>777.9974492616689</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.0543285965952</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="R36" t="n">
-        <v>771.0543285965952</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="S36" t="n">
-        <v>771.0543285965952</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="T36" t="n">
-        <v>553.9118464886088</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="U36" t="n">
-        <v>314.287531661489</v>
+        <v>771.0543285965949</v>
       </c>
       <c r="V36" t="n">
-        <v>182.2943307525454</v>
+        <v>527.974610500229</v>
       </c>
       <c r="W36" t="n">
-        <v>182.2943307525454</v>
+        <v>527.974610500229</v>
       </c>
       <c r="X36" t="n">
-        <v>182.2943307525454</v>
+        <v>527.974610500229</v>
       </c>
       <c r="Y36" t="n">
-        <v>182.2943307525454</v>
+        <v>527.974610500229</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H37" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I37" t="n">
         <v>56.03802837397789</v>
@@ -7126,19 +7126,19 @@
         <v>56.03802837397789</v>
       </c>
       <c r="U37" t="n">
-        <v>39.27289296922555</v>
+        <v>39.27289296922554</v>
       </c>
       <c r="V37" t="n">
-        <v>39.27289296922555</v>
+        <v>39.27289296922554</v>
       </c>
       <c r="W37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="X37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y37" t="n">
-        <v>20.83690038858567</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="38">
@@ -7154,7 +7154,7 @@
         <v>544.0845948837519</v>
       </c>
       <c r="D38" t="n">
-        <v>477.7077411385746</v>
+        <v>477.7077411385747</v>
       </c>
       <c r="E38" t="n">
         <v>377.2836627273279</v>
@@ -7172,25 +7172,25 @@
         <v>51.57334671175849</v>
       </c>
       <c r="J38" t="n">
-        <v>51.57334671175849</v>
+        <v>244.892819196293</v>
       </c>
       <c r="K38" t="n">
-        <v>178.5660607733192</v>
+        <v>502.7494615050406</v>
       </c>
       <c r="L38" t="n">
-        <v>225.2772191123556</v>
+        <v>549.4606198440771</v>
       </c>
       <c r="M38" t="n">
-        <v>306.1283427257009</v>
+        <v>630.3117434574224</v>
       </c>
       <c r="N38" t="n">
-        <v>381.445286029363</v>
+        <v>816.3511295677886</v>
       </c>
       <c r="O38" t="n">
-        <v>415.6555811061452</v>
+        <v>850.5614246445708</v>
       </c>
       <c r="P38" t="n">
-        <v>670.0441875457814</v>
+        <v>850.5614246445708</v>
       </c>
       <c r="Q38" t="n">
         <v>850.5614246445708</v>
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>371.0292908945902</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="C39" t="n">
-        <v>181.6170166275539</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="D39" t="n">
-        <v>20.83690038858567</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="E39" t="n">
-        <v>20.83690038858567</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="F39" t="n">
-        <v>20.83690038858567</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="G39" t="n">
-        <v>20.83690038858567</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="H39" t="n">
-        <v>20.83690038858567</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="I39" t="n">
-        <v>20.83690038858567</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="J39" t="n">
         <v>20.83690038858567</v>
@@ -7272,31 +7272,31 @@
         <v>777.9974492616691</v>
       </c>
       <c r="Q39" t="n">
-        <v>775.2058368861976</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="R39" t="n">
-        <v>775.2058368861976</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="S39" t="n">
-        <v>775.2058368861976</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="T39" t="n">
-        <v>775.2058368861976</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="U39" t="n">
-        <v>775.2058368861976</v>
+        <v>538.3731344345492</v>
       </c>
       <c r="V39" t="n">
-        <v>775.2058368861976</v>
+        <v>295.2934163381833</v>
       </c>
       <c r="W39" t="n">
-        <v>775.2058368861976</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="X39" t="n">
-        <v>775.2058368861976</v>
+        <v>32.20123971462687</v>
       </c>
       <c r="Y39" t="n">
-        <v>549.5651438215252</v>
+        <v>32.20123971462687</v>
       </c>
     </row>
     <row r="40">
@@ -7315,46 +7315,46 @@
         <v>20.83690038858567</v>
       </c>
       <c r="E40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="F40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="G40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="H40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="I40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="J40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="K40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="L40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="M40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="N40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="O40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="P40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="Q40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="R40" t="n">
-        <v>56.03802837397789</v>
+        <v>20.83690038858567</v>
       </c>
       <c r="S40" t="n">
         <v>56.03802837397789</v>
@@ -7409,19 +7409,19 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>190.6484249575439</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K41" t="n">
-        <v>238.1585807381333</v>
+        <v>238.1585807381334</v>
       </c>
       <c r="L41" t="n">
-        <v>284.8697390771698</v>
+        <v>523.4717764441538</v>
       </c>
       <c r="M41" t="n">
         <v>604.3229000574991</v>
       </c>
       <c r="N41" t="n">
-        <v>918.2418807281451</v>
+        <v>679.6398433611612</v>
       </c>
       <c r="O41" t="n">
         <v>952.4521758049274</v>
@@ -7464,76 +7464,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>759.2740036081929</v>
+        <v>859.5454949197252</v>
       </c>
       <c r="C42" t="n">
-        <v>759.2740036081929</v>
+        <v>859.5454949197252</v>
       </c>
       <c r="D42" t="n">
-        <v>598.4938873692246</v>
+        <v>859.5454949197252</v>
       </c>
       <c r="E42" t="n">
-        <v>424.930683490639</v>
+        <v>859.5454949197252</v>
       </c>
       <c r="F42" t="n">
-        <v>264.5029672078831</v>
+        <v>699.1177786369693</v>
       </c>
       <c r="G42" t="n">
-        <v>155.0713027330536</v>
+        <v>699.1177786369693</v>
       </c>
       <c r="H42" t="n">
-        <v>28.06539879618224</v>
+        <v>699.1177786369693</v>
       </c>
       <c r="I42" t="n">
-        <v>28.06539879618224</v>
+        <v>699.1177786369693</v>
       </c>
       <c r="J42" t="n">
-        <v>28.06539879618224</v>
+        <v>646.1093909360288</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02342281944783</v>
+        <v>684.0674149592944</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3492127644448</v>
+        <v>801.3932049042915</v>
       </c>
       <c r="M42" t="n">
-        <v>365.017539947711</v>
+        <v>983.0615320875577</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9139767474193</v>
+        <v>1187.957968887266</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6071042906905</v>
+        <v>1319.651096430537</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2259476692657</v>
+        <v>1403.269939809112</v>
       </c>
       <c r="Q42" t="n">
-        <v>785.2259476692657</v>
+        <v>1396.326819144038</v>
       </c>
       <c r="R42" t="n">
-        <v>785.2259476692657</v>
+        <v>1396.326819144038</v>
       </c>
       <c r="S42" t="n">
-        <v>785.2259476692657</v>
+        <v>1396.326819144038</v>
       </c>
       <c r="T42" t="n">
-        <v>785.2259476692657</v>
+        <v>1396.326819144038</v>
       </c>
       <c r="U42" t="n">
-        <v>785.2259476692657</v>
+        <v>1396.326819144038</v>
       </c>
       <c r="V42" t="n">
-        <v>785.2259476692657</v>
+        <v>1396.326819144038</v>
       </c>
       <c r="W42" t="n">
-        <v>759.2740036081929</v>
+        <v>1126.92824987433</v>
       </c>
       <c r="X42" t="n">
-        <v>759.2740036081929</v>
+        <v>1085.186187984398</v>
       </c>
       <c r="Y42" t="n">
-        <v>759.2740036081929</v>
+        <v>859.5454949197252</v>
       </c>
     </row>
     <row r="43">
@@ -7546,55 +7546,55 @@
         <v>28.06539879618224</v>
       </c>
       <c r="C43" t="n">
-        <v>101.8748270009136</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D43" t="n">
-        <v>124.6079130418985</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E43" t="n">
-        <v>124.6079130418985</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F43" t="n">
-        <v>124.6079130418985</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G43" t="n">
-        <v>124.6079130418985</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>124.6079130418985</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>124.6079130418985</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>124.6079130418985</v>
+        <v>75.84269177225474</v>
       </c>
       <c r="K43" t="n">
-        <v>124.6079130418985</v>
+        <v>75.84269177225474</v>
       </c>
       <c r="L43" t="n">
-        <v>124.6079130418985</v>
+        <v>75.84269177225474</v>
       </c>
       <c r="M43" t="n">
-        <v>124.6079130418985</v>
+        <v>75.84269177225474</v>
       </c>
       <c r="N43" t="n">
-        <v>124.6079130418985</v>
+        <v>75.84269177225474</v>
       </c>
       <c r="O43" t="n">
-        <v>124.6079130418985</v>
+        <v>75.84269177225474</v>
       </c>
       <c r="P43" t="n">
-        <v>124.6079130418985</v>
+        <v>75.84269177225474</v>
       </c>
       <c r="Q43" t="n">
-        <v>124.6079130418985</v>
+        <v>75.84269177225474</v>
       </c>
       <c r="R43" t="n">
-        <v>124.6079130418985</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="S43" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="T43" t="n">
         <v>130.125806765216</v>
@@ -7652,25 +7652,25 @@
         <v>422.5827360122556</v>
       </c>
       <c r="L44" t="n">
-        <v>523.4717764441538</v>
+        <v>707.895931718276</v>
       </c>
       <c r="M44" t="n">
-        <v>604.3229000574991</v>
+        <v>788.7470553316213</v>
       </c>
       <c r="N44" t="n">
-        <v>679.6398433611612</v>
+        <v>1066.431608611344</v>
       </c>
       <c r="O44" t="n">
-        <v>952.4521758049274</v>
+        <v>1339.24394105511</v>
       </c>
       <c r="P44" t="n">
-        <v>1176.104335921391</v>
+        <v>1339.24394105511</v>
       </c>
       <c r="Q44" t="n">
-        <v>1325.885126697007</v>
+        <v>1339.24394105511</v>
       </c>
       <c r="R44" t="n">
-        <v>1371.550579303025</v>
+        <v>1384.909393661128</v>
       </c>
       <c r="S44" t="n">
         <v>1384.909393661128</v>
@@ -7701,28 +7701,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>349.9505454428979</v>
+        <v>339.0926237628464</v>
       </c>
       <c r="C45" t="n">
-        <v>349.9505454428979</v>
+        <v>339.0926237628464</v>
       </c>
       <c r="D45" t="n">
-        <v>349.9505454428979</v>
+        <v>178.3125075238781</v>
       </c>
       <c r="E45" t="n">
-        <v>349.9505454428979</v>
+        <v>178.3125075238781</v>
       </c>
       <c r="F45" t="n">
-        <v>189.522829160142</v>
+        <v>178.3125075238781</v>
       </c>
       <c r="G45" t="n">
-        <v>189.522829160142</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H45" t="n">
-        <v>189.522829160142</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I45" t="n">
-        <v>81.07378649712278</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J45" t="n">
         <v>28.06539879618224</v>
@@ -7737,40 +7737,40 @@
         <v>365.017539947711</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9139767474193</v>
+        <v>569.9139767474192</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6071042906905</v>
+        <v>701.6071042906904</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2259476692657</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.2828270041917</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="R45" t="n">
-        <v>642.2001401582679</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="S45" t="n">
-        <v>448.6734660572122</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="T45" t="n">
-        <v>375.9024895039707</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="U45" t="n">
-        <v>375.9024895039707</v>
+        <v>785.2259476692655</v>
       </c>
       <c r="V45" t="n">
-        <v>375.9024895039707</v>
+        <v>584.5525622072229</v>
       </c>
       <c r="W45" t="n">
-        <v>349.9505454428979</v>
+        <v>558.6006181461501</v>
       </c>
       <c r="X45" t="n">
-        <v>349.9505454428979</v>
+        <v>339.0926237628464</v>
       </c>
       <c r="Y45" t="n">
-        <v>349.9505454428979</v>
+        <v>339.0926237628464</v>
       </c>
     </row>
     <row r="46">
@@ -7813,25 +7813,25 @@
         <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="P46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="R46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="S46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795653</v>
       </c>
       <c r="T46" t="n">
         <v>130.125806765216</v>
@@ -8535,19 +8535,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L9" t="n">
-        <v>172.5532127625713</v>
+        <v>169.2041989925474</v>
       </c>
       <c r="M9" t="n">
-        <v>176.9203908159872</v>
+        <v>173.4035213848624</v>
       </c>
       <c r="N9" t="n">
-        <v>160.4047444027676</v>
+        <v>163.7537581727915</v>
       </c>
       <c r="O9" t="n">
         <v>177.484287653347</v>
       </c>
       <c r="P9" t="n">
-        <v>163.4487770454829</v>
+        <v>166.9656464766077</v>
       </c>
       <c r="Q9" t="n">
         <v>136.1300824528302</v>
@@ -8778,7 +8778,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N12" t="n">
-        <v>292.133805873377</v>
+        <v>292.1338058733769</v>
       </c>
       <c r="O12" t="n">
         <v>255.2227828913207</v>
@@ -9252,7 +9252,7 @@
         <v>301.77688131</v>
       </c>
       <c r="N18" t="n">
-        <v>292.1338058733768</v>
+        <v>292.1338058733769</v>
       </c>
       <c r="O18" t="n">
         <v>255.2227828913207</v>
@@ -23258,25 +23258,25 @@
         <v>195.9454765282923</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0637335316378</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3371482120951</v>
+        <v>4.851103135857869</v>
       </c>
       <c r="F11" t="n">
-        <v>36.57144071423519</v>
+        <v>225.0574857904724</v>
       </c>
       <c r="G11" t="n">
         <v>240.6964710997769</v>
       </c>
       <c r="H11" t="n">
-        <v>38.70279390667123</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700846</v>
+        <v>20.45419535569624</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,19 +23303,19 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>16.74367530294978</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>49.37664323013701</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692367</v>
       </c>
       <c r="U11" t="n">
         <v>72.00878260204226</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>142.738019759611</v>
       </c>
       <c r="W11" t="n">
         <v>159.7546999762259</v>
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.459431452055043</v>
+        <v>7.459431452055099</v>
       </c>
       <c r="C14" t="n">
         <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6303957926863</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120951</v>
+        <v>193.3371482120952</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0574857904724</v>
+        <v>39.43320179107354</v>
       </c>
       <c r="G14" t="n">
-        <v>52.2104260235397</v>
+        <v>52.21042602353975</v>
       </c>
       <c r="H14" t="n">
-        <v>168.8802695799879</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>50.44972735236029</v>
+        <v>62.87039510700851</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,16 +23540,16 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.74367530294984</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.37664323013698</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>44.32438889692373</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>72.00878260204232</v>
       </c>
       <c r="V14" t="n">
         <v>142.738019759611</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1113202.791046343</v>
+        <v>1113202.791046342</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1113202.791046343</v>
+        <v>1113202.791046342</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>264579.5985529378</v>
+        <v>264579.5985529379</v>
       </c>
       <c r="C2" t="n">
         <v>264579.5985529378</v>
@@ -26320,10 +26320,10 @@
         <v>264739.9794763566</v>
       </c>
       <c r="E2" t="n">
+        <v>227916.8362444344</v>
+      </c>
+      <c r="F2" t="n">
         <v>227916.8362444343</v>
-      </c>
-      <c r="F2" t="n">
-        <v>227916.8362444342</v>
       </c>
       <c r="G2" t="n">
         <v>265115.5646575608</v>
@@ -26332,13 +26332,13 @@
         <v>265115.5646575608</v>
       </c>
       <c r="I2" t="n">
-        <v>265115.5646575607</v>
+        <v>265115.5646575608</v>
       </c>
       <c r="J2" t="n">
         <v>265115.5646575608</v>
       </c>
       <c r="K2" t="n">
-        <v>265115.5646575607</v>
+        <v>265115.5646575606</v>
       </c>
       <c r="L2" t="n">
         <v>265115.5646575604</v>
@@ -26347,13 +26347,13 @@
         <v>265115.5646575607</v>
       </c>
       <c r="N2" t="n">
+        <v>265115.5646575606</v>
+      </c>
+      <c r="O2" t="n">
+        <v>265115.5646575605</v>
+      </c>
+      <c r="P2" t="n">
         <v>265115.5646575607</v>
-      </c>
-      <c r="O2" t="n">
-        <v>265115.5646575606</v>
-      </c>
-      <c r="P2" t="n">
-        <v>265115.5646575606</v>
       </c>
     </row>
     <row r="3">
@@ -26396,13 +26396,13 @@
         <v>96176.0392439581</v>
       </c>
       <c r="M3" t="n">
-        <v>46128.92849852185</v>
+        <v>46128.92849852183</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134119</v>
+        <v>72249.0765513412</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26427,16 +26427,16 @@
         <v>278809.5434581143</v>
       </c>
       <c r="F4" t="n">
-        <v>278809.5434581144</v>
+        <v>278809.5434581143</v>
       </c>
       <c r="G4" t="n">
         <v>349424.6097629184</v>
       </c>
       <c r="H4" t="n">
+        <v>349424.6097629185</v>
+      </c>
+      <c r="I4" t="n">
         <v>349424.6097629184</v>
-      </c>
-      <c r="I4" t="n">
-        <v>349424.6097629185</v>
       </c>
       <c r="J4" t="n">
         <v>350153.975640944</v>
@@ -26491,7 +26491,7 @@
         <v>38671.63774774208</v>
       </c>
       <c r="J5" t="n">
-        <v>47448.92101020608</v>
+        <v>47448.92101020607</v>
       </c>
       <c r="K5" t="n">
         <v>47448.92101020608</v>
@@ -26500,7 +26500,7 @@
         <v>47311.5884253959</v>
       </c>
       <c r="M5" t="n">
-        <v>40912.97865860086</v>
+        <v>40912.97865860085</v>
       </c>
       <c r="N5" t="n">
         <v>40912.97865860086</v>
@@ -26519,19 +26519,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-162262.6151594175</v>
+        <v>-162267.0815436226</v>
       </c>
       <c r="C6" t="n">
-        <v>-162262.6151594175</v>
+        <v>-162267.0815436227</v>
       </c>
       <c r="D6" t="n">
-        <v>-163129.3803018413</v>
+        <v>-163132.5101783514</v>
       </c>
       <c r="E6" t="n">
-        <v>-358544.2020014037</v>
+        <v>-358854.1914048464</v>
       </c>
       <c r="F6" t="n">
-        <v>-79534.05873402405</v>
+        <v>-79844.04813746657</v>
       </c>
       <c r="G6" t="n">
         <v>-218428.8145296814</v>
@@ -26540,10 +26540,10 @@
         <v>-122980.6828530997</v>
       </c>
       <c r="I6" t="n">
-        <v>-122980.6828530999</v>
+        <v>-122980.6828530997</v>
       </c>
       <c r="J6" t="n">
-        <v>-275977.7483645995</v>
+        <v>-275977.7483645996</v>
       </c>
       <c r="K6" t="n">
         <v>-132487.3319935894</v>
@@ -26555,10 +26555,10 @@
         <v>-171255.646075297</v>
       </c>
       <c r="N6" t="n">
-        <v>-125126.7175767751</v>
+        <v>-125126.7175767753</v>
       </c>
       <c r="O6" t="n">
-        <v>-200646.3991080353</v>
+        <v>-200646.3991080354</v>
       </c>
       <c r="P6" t="n">
         <v>-128397.3225566941</v>
@@ -26698,13 +26698,13 @@
         <v>178.141763849541</v>
       </c>
       <c r="G2" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H2" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I2" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J2" t="n">
         <v>213.488029352129</v>
@@ -26713,7 +26713,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="L2" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="M2" t="n">
         <v>272.0590744345018</v>
@@ -26805,22 +26805,22 @@
         <v>188.4860450762372</v>
       </c>
       <c r="H4" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="J4" t="n">
+        <v>448.9472999335579</v>
+      </c>
+      <c r="K4" t="n">
         <v>448.947299933558</v>
       </c>
-      <c r="K4" t="n">
-        <v>448.9472999335581</v>
-      </c>
       <c r="L4" t="n">
-        <v>445.4304305024333</v>
+        <v>445.4304305024332</v>
       </c>
       <c r="M4" t="n">
-        <v>260.4612548573209</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="N4" t="n">
         <v>260.4612548573209</v>
@@ -26929,7 +26929,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.1778647564019</v>
+        <v>94.17786475640193</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26938,13 +26938,13 @@
         <v>120.2200490549476</v>
       </c>
       <c r="M2" t="n">
-        <v>57.66116062315231</v>
+        <v>57.66116062315228</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844955</v>
+        <v>63.13094927844958</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>260.4612548573208</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.1778647564019</v>
+        <v>94.17786475640193</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27880,7 +27880,7 @@
         <v>58.46339092876153</v>
       </c>
       <c r="L8" t="n">
-        <v>16.99055923469257</v>
+        <v>16.81291084694001</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
@@ -27895,7 +27895,7 @@
         <v>73.5786919263081</v>
       </c>
       <c r="Q8" t="n">
-        <v>133.4551793114576</v>
+        <v>133.6328276992101</v>
       </c>
       <c r="R8" t="n">
         <v>220.4301160555486</v>
@@ -27938,7 +27938,7 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E9" t="n">
-        <v>171.8275718397997</v>
+        <v>168.7299132448649</v>
       </c>
       <c r="F9" t="n">
         <v>158.8234391199283</v>
@@ -27953,7 +27953,7 @@
         <v>114.855819447717</v>
       </c>
       <c r="J9" t="n">
-        <v>69.51804420162362</v>
+        <v>73.03491363274843</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,13 +27977,13 @@
         <v>31.13081250099125</v>
       </c>
       <c r="R9" t="n">
-        <v>148.2309527983001</v>
+        <v>144.7140833671753</v>
       </c>
       <c r="S9" t="n">
-        <v>192.5352158530052</v>
+        <v>192.1160050168152</v>
       </c>
       <c r="T9" t="n">
-        <v>212.3311909853626</v>
+        <v>215.8480604164874</v>
       </c>
       <c r="U9" t="n">
         <v>237.2423862021824</v>
@@ -28114,10 +28114,10 @@
         <v>178.141763849541</v>
       </c>
       <c r="K11" t="n">
-        <v>53.94195765711119</v>
+        <v>6.735077083103285</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>141.3030568549884</v>
       </c>
       <c r="M11" t="n">
         <v>106.8182434465955</v>
@@ -28126,10 +28126,10 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>68.94470145692361</v>
       </c>
       <c r="P11" t="n">
-        <v>178.141763849541</v>
+        <v>15.10088611163705</v>
       </c>
       <c r="Q11" t="n">
         <v>178.141763849541</v>
@@ -28187,10 +28187,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I12" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28214,19 +28214,19 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>178.141763849541</v>
+        <v>3.105362283807949</v>
       </c>
       <c r="T12" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="U12" t="n">
-        <v>48.74202660261136</v>
+        <v>178.141763849541</v>
       </c>
       <c r="V12" t="n">
-        <v>124.3639927441761</v>
+        <v>90.16504549797281</v>
       </c>
       <c r="W12" t="n">
         <v>178.141763849541</v>
@@ -28245,13 +28245,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>178.141763849541</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C13" t="n">
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.141763849541</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
@@ -28266,31 +28266,31 @@
         <v>178.141763849541</v>
       </c>
       <c r="I13" t="n">
-        <v>178.141763849541</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J13" t="n">
-        <v>178.141763849541</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K13" t="n">
-        <v>67.0332105846294</v>
+        <v>110.3184706800492</v>
       </c>
       <c r="L13" t="n">
         <v>32.15595010613791</v>
       </c>
       <c r="M13" t="n">
-        <v>25.22122397250158</v>
+        <v>178.141763849541</v>
       </c>
       <c r="N13" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="O13" t="n">
-        <v>99.09320534513257</v>
+        <v>178.141763849541</v>
       </c>
       <c r="P13" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q13" t="n">
-        <v>178.141763849541</v>
+        <v>127.2193142604766</v>
       </c>
       <c r="R13" t="n">
         <v>178.141763849541</v>
@@ -28351,25 +28351,25 @@
         <v>178.141763849541</v>
       </c>
       <c r="K14" t="n">
-        <v>178.141763849541</v>
+        <v>6.735077083103285</v>
       </c>
       <c r="L14" t="n">
-        <v>141.3030568549883</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>92.77959108625132</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
-        <v>15.10088611163704</v>
+        <v>15.10088611163705</v>
       </c>
       <c r="Q14" t="n">
-        <v>89.71843090037106</v>
+        <v>122.0510061306395</v>
       </c>
       <c r="R14" t="n">
         <v>178.141763849541</v>
@@ -28415,19 +28415,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
         <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
-        <v>48.90347184120523</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I15" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28451,16 +28451,16 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
         <v>178.141763849541</v>
       </c>
       <c r="T15" t="n">
-        <v>178.141763849541</v>
+        <v>97.00668500310094</v>
       </c>
       <c r="U15" t="n">
-        <v>178.141763849541</v>
+        <v>48.74202660261137</v>
       </c>
       <c r="V15" t="n">
         <v>178.141763849541</v>
@@ -28488,13 +28488,13 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.141763849541</v>
       </c>
       <c r="E16" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.141763849541</v>
       </c>
       <c r="G16" t="n">
         <v>168.7008027322384</v>
@@ -28509,16 +28509,16 @@
         <v>120.241573402485</v>
       </c>
       <c r="K16" t="n">
-        <v>104.973877899873</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15595010613791</v>
+        <v>178.141763849541</v>
       </c>
       <c r="M16" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N16" t="n">
-        <v>178.141763849541</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O16" t="n">
         <v>178.141763849541</v>
@@ -28527,7 +28527,7 @@
         <v>178.141763849541</v>
       </c>
       <c r="Q16" t="n">
-        <v>178.141763849541</v>
+        <v>159.5399737352477</v>
       </c>
       <c r="R16" t="n">
         <v>178.141763849541</v>
@@ -28561,34 +28561,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J17" t="n">
-        <v>76.78688000567912</v>
+        <v>119.9958361501566</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103278</v>
+        <v>6.735077083103285</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -28597,40 +28597,40 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>112.4083245674877</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>203.5869311878743</v>
+        <v>15.10088611163705</v>
       </c>
       <c r="Q17" t="n">
-        <v>159.4161558288759</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R17" t="n">
-        <v>194.8854391524908</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="S17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="U17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y17" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="18">
@@ -28652,16 +28652,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>96.77127595678729</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>66.01588360093091</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -28688,7 +28688,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5914073600452</v>
@@ -28697,16 +28697,16 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261137</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>78.21853850077437</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
-        <v>28.82686936323339</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
         <v>223.3842861340256</v>
@@ -28752,13 +28752,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M19" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N19" t="n">
         <v>16.52441230575097</v>
       </c>
       <c r="O19" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P19" t="n">
         <v>58.48196179900678</v>
@@ -28798,34 +28798,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I20" t="n">
-        <v>297.4519284452682</v>
+        <v>264.5831640809962</v>
       </c>
       <c r="J20" t="n">
-        <v>265.2729250819164</v>
+        <v>76.78688000567914</v>
       </c>
       <c r="K20" t="n">
-        <v>6.735077083103278</v>
+        <v>6.735077083103285</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28846,28 +28846,28 @@
         <v>89.71843090037106</v>
       </c>
       <c r="R20" t="n">
-        <v>268.317798062837</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="S20" t="n">
-        <v>227.518407079678</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="T20" t="n">
-        <v>222.4661527464647</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1505464515833</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="V20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y20" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="21">
@@ -28880,7 +28880,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C21" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D21" t="n">
         <v>159.1723150765785</v>
@@ -28889,16 +28889,16 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H21" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R21" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T21" t="n">
-        <v>26.48501221066923</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U21" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V21" t="n">
-        <v>240.6489209154022</v>
+        <v>232.1679702573392</v>
       </c>
       <c r="W21" t="n">
-        <v>226.6933196049155</v>
+        <v>78.21853850077432</v>
       </c>
       <c r="X21" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>34.89824105778834</v>
       </c>
     </row>
     <row r="22">
@@ -28989,13 +28989,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M22" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N22" t="n">
         <v>16.52441230575097</v>
       </c>
       <c r="O22" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P22" t="n">
         <v>58.48196179900678</v>
@@ -29035,40 +29035,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="C23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="D23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="E23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="F23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="G23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="H23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="I23" t="n">
-        <v>264.0660439090186</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="J23" t="n">
         <v>265.2729250819164</v>
       </c>
       <c r="K23" t="n">
-        <v>195.2211221593405</v>
+        <v>6.735077083103285</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>106.8182434465955</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -29077,10 +29077,10 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>15.10088611163704</v>
+        <v>15.10088611163705</v>
       </c>
       <c r="Q23" t="n">
-        <v>89.71843090037106</v>
+        <v>276.6510591881513</v>
       </c>
       <c r="R23" t="n">
         <v>194.8854391524908</v>
@@ -29089,22 +29089,22 @@
         <v>227.518407079678</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4661527464647</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="U23" t="n">
         <v>250.1505464515833</v>
       </c>
       <c r="V23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="W23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="X23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="Y23" t="n">
-        <v>297.4519284452682</v>
+        <v>297.4519284452681</v>
       </c>
     </row>
     <row r="24">
@@ -29117,7 +29117,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
         <v>159.1723150765785</v>
@@ -29126,7 +29126,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7446376404189</v>
@@ -29135,10 +29135,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R24" t="n">
         <v>134.7218599774646</v>
@@ -29171,19 +29171,19 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U24" t="n">
-        <v>48.74202660261136</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V24" t="n">
-        <v>240.6489209154022</v>
+        <v>52.16287583916497</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>78.21853850077432</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>28.82686936323333</v>
       </c>
       <c r="Y24" t="n">
-        <v>193.4518236414389</v>
+        <v>57.36577763087593</v>
       </c>
     </row>
     <row r="25">
@@ -29226,13 +29226,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M25" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N25" t="n">
         <v>16.52441230575097</v>
       </c>
       <c r="O25" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P25" t="n">
         <v>58.48196179900678</v>
@@ -29308,7 +29308,7 @@
         <v>213.488029352129</v>
       </c>
       <c r="N26" t="n">
-        <v>213.4880293521294</v>
+        <v>213.488029352129</v>
       </c>
       <c r="O26" t="n">
         <v>213.488029352129</v>
@@ -29354,16 +29354,16 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D27" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
         <v>148.7446376404189</v>
@@ -29375,7 +29375,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,10 +29396,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7218599774646</v>
+        <v>48.94249078051072</v>
       </c>
       <c r="S27" t="n">
         <v>191.5914073600452</v>
@@ -29411,13 +29411,13 @@
         <v>213.488029352129</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
-        <v>202.4023571654451</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X27" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>213.488029352129</v>
@@ -29433,10 +29433,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C28" t="n">
-        <v>166.4571809719723</v>
+        <v>213.488029352129</v>
       </c>
       <c r="D28" t="n">
-        <v>213.488029352129</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29451,10 +29451,10 @@
         <v>165.824644867158</v>
       </c>
       <c r="I28" t="n">
-        <v>164.8538042427314</v>
+        <v>213.488029352129</v>
       </c>
       <c r="J28" t="n">
-        <v>120.241573402485</v>
+        <v>213.488029352129</v>
       </c>
       <c r="K28" t="n">
         <v>67.0332105846294</v>
@@ -29463,19 +29463,19 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M28" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N28" t="n">
-        <v>94.49904753148262</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O28" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P28" t="n">
         <v>58.48196179900678</v>
       </c>
       <c r="Q28" t="n">
-        <v>213.488029352129</v>
+        <v>170.856514240081</v>
       </c>
       <c r="R28" t="n">
         <v>203.4312113734075</v>
@@ -29597,22 +29597,22 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>125.7358448975026</v>
+        <v>69.57350350535587</v>
       </c>
       <c r="I30" t="n">
-        <v>26.27258608958843</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R30" t="n">
         <v>134.7218599774646</v>
@@ -29667,19 +29667,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>177.6169206649681</v>
+        <v>185.4304177300439</v>
       </c>
       <c r="C31" t="n">
-        <v>191.9854753656752</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>145.1826502507107</v>
+        <v>213.488029352129</v>
       </c>
       <c r="E31" t="n">
-        <v>141.676141212225</v>
+        <v>213.488029352129</v>
       </c>
       <c r="F31" t="n">
-        <v>138.9268822184467</v>
+        <v>213.488029352129</v>
       </c>
       <c r="G31" t="n">
         <v>168.7008027322384</v>
@@ -29700,13 +29700,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M31" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N31" t="n">
-        <v>213.488029352129</v>
+        <v>16.52441230575097</v>
       </c>
       <c r="O31" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P31" t="n">
         <v>58.48196179900678</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="C32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="D32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="E32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="F32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="G32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="H32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="I32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="J32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="L32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="M32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="N32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="O32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="P32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Q32" t="n">
-        <v>192.2835716884568</v>
+        <v>192.2835716884566</v>
       </c>
       <c r="R32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="S32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="T32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="U32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="V32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="W32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="X32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Y32" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
     </row>
     <row r="33">
@@ -29843,13 +29843,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I33" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29879,19 +29879,19 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T33" t="n">
-        <v>214.3979138113495</v>
+        <v>174.1836947320073</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="V33" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="W33" t="n">
-        <v>140.07668356919</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="X33" t="n">
-        <v>214.3979138113495</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -29907,10 +29907,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C34" t="n">
-        <v>166.4571809719723</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="D34" t="n">
-        <v>145.1826502507107</v>
+        <v>179.4497221669197</v>
       </c>
       <c r="E34" t="n">
         <v>141.676141212225</v>
@@ -29919,10 +29919,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.7008027322384</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3979138113495</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I34" t="n">
         <v>164.8538042427314</v>
@@ -29937,43 +29937,43 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M34" t="n">
-        <v>46.78222083947986</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N34" t="n">
         <v>16.52441230575097</v>
       </c>
       <c r="O34" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P34" t="n">
-        <v>214.3979138113495</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.2193142604766</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="R34" t="n">
-        <v>203.4312113734075</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="S34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="T34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="U34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="V34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="W34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="X34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Y34" t="n">
-        <v>214.3979138113495</v>
+        <v>214.3979138113496</v>
       </c>
     </row>
     <row r="35">
@@ -30004,31 +30004,31 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I35" t="n">
-        <v>241.0121589565495</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="J35" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="K35" t="n">
-        <v>6.735077083103278</v>
+        <v>267.196331940424</v>
       </c>
       <c r="L35" t="n">
-        <v>157.2659421059712</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>178.793453227679</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>54.76170072905865</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>272.0590744345018</v>
+        <v>15.10088611163705</v>
       </c>
       <c r="Q35" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R35" t="n">
         <v>194.8854391524908</v>
@@ -30037,10 +30037,10 @@
         <v>227.518407079678</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4661527464647</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="U35" t="n">
-        <v>250.1505464515833</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="V35" t="n">
         <v>272.0590744345018</v>
@@ -30065,13 +30065,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>17.12224641395886</v>
       </c>
       <c r="F36" t="n">
         <v>158.8234391199283</v>
@@ -30116,13 +30116,13 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V36" t="n">
-        <v>109.9756520155481</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
         <v>266.7045835770116</v>
@@ -30159,10 +30159,10 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H37" t="n">
-        <v>201.3813398018976</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I37" t="n">
-        <v>164.8538042427314</v>
+        <v>200.410499177471</v>
       </c>
       <c r="J37" t="n">
         <v>120.241573402485</v>
@@ -30174,13 +30174,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M37" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N37" t="n">
         <v>16.52441230575097</v>
       </c>
       <c r="O37" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P37" t="n">
         <v>58.48196179900678</v>
@@ -30244,10 +30244,10 @@
         <v>272.0590744345018</v>
       </c>
       <c r="J38" t="n">
-        <v>76.78688000567912</v>
+        <v>272.0590744345018</v>
       </c>
       <c r="K38" t="n">
-        <v>135.0105458321545</v>
+        <v>267.1963319404242</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -30256,16 +30256,16 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>111.8408513199031</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>272.0590744345018</v>
+        <v>15.10088611163705</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R38" t="n">
         <v>272.0590744345018</v>
@@ -30299,13 +30299,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E39" t="n">
         <v>171.8275718397997</v>
@@ -30323,7 +30323,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47830382393113</v>
+        <v>41.22760789115034</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,7 +30344,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>4.109993206706413</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
@@ -30356,19 +30356,19 @@
         <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243328719690737</v>
       </c>
       <c r="X39" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30387,7 +30387,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E40" t="n">
-        <v>177.2328361469646</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F40" t="n">
         <v>138.9268822184467</v>
@@ -30411,13 +30411,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M40" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N40" t="n">
         <v>16.52441230575097</v>
       </c>
       <c r="O40" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P40" t="n">
         <v>58.48196179900678</v>
@@ -30429,7 +30429,7 @@
         <v>203.4312113734075</v>
       </c>
       <c r="S40" t="n">
-        <v>235.4385289329965</v>
+        <v>270.9952238677361</v>
       </c>
       <c r="T40" t="n">
         <v>223.761677253872</v>
@@ -30481,22 +30481,22 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
+        <v>76.78688000567914</v>
+      </c>
+      <c r="K41" t="n">
+        <v>218.9504123780034</v>
+      </c>
+      <c r="L41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="K41" t="n">
-        <v>54.72513342713303</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="N41" t="n">
-        <v>241.0121589565495</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>241.0121589565495</v>
@@ -30542,25 +30542,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>40.40728981033764</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I42" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393113</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423158</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
@@ -30599,13 +30599,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>241.0121589565495</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>175.9882731684378</v>
       </c>
       <c r="Y42" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -30618,10 +30618,10 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C43" t="n">
-        <v>241.0121589565495</v>
+        <v>166.4571809719723</v>
       </c>
       <c r="D43" t="n">
-        <v>168.1453634234228</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E43" t="n">
         <v>141.676141212225</v>
@@ -30639,7 +30639,7 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J43" t="n">
-        <v>120.241573402485</v>
+        <v>168.5014652975078</v>
       </c>
       <c r="K43" t="n">
         <v>67.0332105846294</v>
@@ -30648,13 +30648,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250158</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N43" t="n">
         <v>16.52441230575097</v>
       </c>
       <c r="O43" t="n">
-        <v>37.48281412028791</v>
+        <v>37.48281412028792</v>
       </c>
       <c r="P43" t="n">
         <v>58.48196179900678</v>
@@ -30663,13 +30663,13 @@
         <v>127.2193142604766</v>
       </c>
       <c r="R43" t="n">
-        <v>203.4312113734075</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="S43" t="n">
+        <v>235.4385289329965</v>
+      </c>
+      <c r="T43" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="T43" t="n">
-        <v>223.761677253872</v>
       </c>
       <c r="U43" t="n">
         <v>241.0121589565495</v>
@@ -30724,28 +30724,28 @@
         <v>241.0121589565495</v>
       </c>
       <c r="L44" t="n">
-        <v>54.72513342713306</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>204.4117272485459</v>
       </c>
       <c r="O44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="P44" t="n">
-        <v>241.0121589565495</v>
+        <v>15.10088611163705</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.0121589565495</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="S44" t="n">
-        <v>241.0121589565495</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T44" t="n">
         <v>241.0121589565495</v>
@@ -30779,25 +30779,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.7358448975026</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>52.47830382393113</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.873689458423161</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>142.9277904991974</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
-        <v>240.6489209154022</v>
+        <v>41.98226930798012</v>
       </c>
       <c r="W45" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30885,13 +30885,13 @@
         <v>32.15595010613791</v>
       </c>
       <c r="M46" t="n">
-        <v>128.3125451533438</v>
+        <v>25.22122397250159</v>
       </c>
       <c r="N46" t="n">
         <v>16.52441230575097</v>
       </c>
       <c r="O46" t="n">
-        <v>37.48281412028791</v>
+        <v>123.3236535984527</v>
       </c>
       <c r="P46" t="n">
         <v>58.48196179900678</v>
@@ -30906,7 +30906,7 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T46" t="n">
-        <v>223.761677253872</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="U46" t="n">
         <v>241.0121589565495</v>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H11" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I11" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L11" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M11" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N11" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O11" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P11" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q11" t="n">
         <v>43.91439679883908</v>
@@ -31786,7 +31786,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S11" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T11" t="n">
         <v>1.780141653523335</v>
@@ -31829,34 +31829,34 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H12" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I12" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J12" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K12" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M12" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N12" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O12" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q12" t="n">
         <v>27.7739924736929</v>
@@ -31865,10 +31865,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S12" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T12" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U12" t="n">
         <v>0.01431452333374772</v>
@@ -31914,10 +31914,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K13" t="n">
         <v>21.1930037920889</v>
@@ -31929,10 +31929,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P13" t="n">
         <v>22.06195011345467</v>
@@ -31941,13 +31941,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R13" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S13" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T13" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U13" t="n">
         <v>0.009949767038539404</v>
@@ -31987,34 +31987,34 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H14" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I14" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L14" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M14" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N14" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O14" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P14" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q14" t="n">
         <v>43.91439679883908</v>
@@ -32023,7 +32023,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S14" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T14" t="n">
         <v>1.780141653523335</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H15" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I15" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J15" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K15" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M15" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N15" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O15" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q15" t="n">
         <v>27.7739924736929</v>
@@ -32102,10 +32102,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S15" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T15" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U15" t="n">
         <v>0.01431452333374772</v>
@@ -32151,10 +32151,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K16" t="n">
         <v>21.1930037920889</v>
@@ -32166,10 +32166,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P16" t="n">
         <v>22.06195011345467</v>
@@ -32178,13 +32178,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R16" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S16" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T16" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U16" t="n">
         <v>0.009949767038539404</v>
@@ -32224,34 +32224,34 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H17" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I17" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L17" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M17" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N17" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O17" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P17" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q17" t="n">
         <v>43.91439679883908</v>
@@ -32260,7 +32260,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S17" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T17" t="n">
         <v>1.780141653523335</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H18" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I18" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J18" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K18" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M18" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N18" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O18" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q18" t="n">
         <v>27.7739924736929</v>
@@ -32339,10 +32339,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S18" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T18" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U18" t="n">
         <v>0.01431452333374772</v>
@@ -32388,10 +32388,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K19" t="n">
         <v>21.1930037920889</v>
@@ -32403,10 +32403,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P19" t="n">
         <v>22.06195011345467</v>
@@ -32415,13 +32415,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R19" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S19" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T19" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U19" t="n">
         <v>0.009949767038539404</v>
@@ -32461,34 +32461,34 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H20" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I20" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L20" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M20" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N20" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O20" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P20" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q20" t="n">
         <v>43.91439679883908</v>
@@ -32497,7 +32497,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S20" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T20" t="n">
         <v>1.780141653523335</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H21" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I21" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J21" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K21" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M21" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N21" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O21" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q21" t="n">
         <v>27.7739924736929</v>
@@ -32576,10 +32576,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S21" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T21" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U21" t="n">
         <v>0.01431452333374772</v>
@@ -32625,10 +32625,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K22" t="n">
         <v>21.1930037920889</v>
@@ -32640,10 +32640,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P22" t="n">
         <v>22.06195011345467</v>
@@ -32652,13 +32652,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R22" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S22" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T22" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U22" t="n">
         <v>0.009949767038539404</v>
@@ -32698,34 +32698,34 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H23" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I23" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L23" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M23" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N23" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O23" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P23" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q23" t="n">
         <v>43.91439679883908</v>
@@ -32734,7 +32734,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S23" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T23" t="n">
         <v>1.780141653523335</v>
@@ -32777,34 +32777,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H24" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I24" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J24" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K24" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M24" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N24" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O24" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q24" t="n">
         <v>27.7739924736929</v>
@@ -32813,10 +32813,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S24" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T24" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U24" t="n">
         <v>0.01431452333374772</v>
@@ -32862,10 +32862,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K25" t="n">
         <v>21.1930037920889</v>
@@ -32877,10 +32877,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P25" t="n">
         <v>22.06195011345467</v>
@@ -32889,13 +32889,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R25" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S25" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T25" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U25" t="n">
         <v>0.009949767038539404</v>
@@ -32935,34 +32935,34 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H26" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L26" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M26" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N26" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O26" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P26" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q26" t="n">
         <v>43.91439679883908</v>
@@ -32971,7 +32971,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S26" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T26" t="n">
         <v>1.780141653523335</v>
@@ -33014,34 +33014,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H27" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I27" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J27" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K27" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M27" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O27" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q27" t="n">
         <v>27.7739924736929</v>
@@ -33050,10 +33050,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S27" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T27" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U27" t="n">
         <v>0.01431452333374772</v>
@@ -33099,10 +33099,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K28" t="n">
         <v>21.1930037920889</v>
@@ -33114,10 +33114,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P28" t="n">
         <v>22.06195011345467</v>
@@ -33126,13 +33126,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R28" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S28" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T28" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U28" t="n">
         <v>0.009949767038539404</v>
@@ -33172,34 +33172,34 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H29" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L29" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M29" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N29" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O29" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P29" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q29" t="n">
         <v>43.91439679883908</v>
@@ -33208,7 +33208,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S29" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T29" t="n">
         <v>1.780141653523335</v>
@@ -33251,34 +33251,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H30" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J30" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K30" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M30" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O30" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q30" t="n">
         <v>27.7739924736929</v>
@@ -33287,10 +33287,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S30" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T30" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U30" t="n">
         <v>0.01431452333374772</v>
@@ -33336,10 +33336,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K31" t="n">
         <v>21.1930037920889</v>
@@ -33351,10 +33351,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P31" t="n">
         <v>22.06195011345467</v>
@@ -33363,13 +33363,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R31" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S31" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T31" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U31" t="n">
         <v>0.009949767038539404</v>
@@ -33409,34 +33409,34 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H32" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L32" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M32" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N32" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O32" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P32" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q32" t="n">
         <v>43.91439679883908</v>
@@ -33445,7 +33445,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S32" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T32" t="n">
         <v>1.780141653523335</v>
@@ -33488,34 +33488,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H33" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I33" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J33" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K33" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M33" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N33" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O33" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q33" t="n">
         <v>27.7739924736929</v>
@@ -33524,10 +33524,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S33" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T33" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U33" t="n">
         <v>0.01431452333374772</v>
@@ -33573,10 +33573,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K34" t="n">
         <v>21.1930037920889</v>
@@ -33588,10 +33588,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P34" t="n">
         <v>22.06195011345467</v>
@@ -33600,13 +33600,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R34" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S34" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T34" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U34" t="n">
         <v>0.009949767038539404</v>
@@ -33646,34 +33646,34 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H35" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L35" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M35" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N35" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O35" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P35" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q35" t="n">
         <v>43.91439679883908</v>
@@ -33682,7 +33682,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S35" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T35" t="n">
         <v>1.780141653523335</v>
@@ -33725,34 +33725,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H36" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I36" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J36" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K36" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M36" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N36" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O36" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q36" t="n">
         <v>27.7739924736929</v>
@@ -33761,10 +33761,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S36" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T36" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U36" t="n">
         <v>0.01431452333374772</v>
@@ -33810,10 +33810,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K37" t="n">
         <v>21.1930037920889</v>
@@ -33825,10 +33825,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P37" t="n">
         <v>22.06195011345467</v>
@@ -33837,13 +33837,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R37" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S37" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T37" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U37" t="n">
         <v>0.009949767038539404</v>
@@ -33883,34 +33883,34 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H38" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L38" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M38" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N38" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O38" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P38" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q38" t="n">
         <v>43.91439679883908</v>
@@ -33919,7 +33919,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S38" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T38" t="n">
         <v>1.780141653523335</v>
@@ -33962,34 +33962,34 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H39" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I39" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J39" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K39" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M39" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N39" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O39" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q39" t="n">
         <v>27.7739924736929</v>
@@ -33998,10 +33998,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S39" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T39" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U39" t="n">
         <v>0.01431452333374772</v>
@@ -34047,10 +34047,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K40" t="n">
         <v>21.1930037920889</v>
@@ -34062,10 +34062,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P40" t="n">
         <v>22.06195011345467</v>
@@ -34074,13 +34074,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R40" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S40" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T40" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U40" t="n">
         <v>0.009949767038539404</v>
@@ -34120,34 +34120,34 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H41" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I41" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L41" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M41" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N41" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O41" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P41" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q41" t="n">
         <v>43.91439679883908</v>
@@ -34156,7 +34156,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S41" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T41" t="n">
         <v>1.780141653523335</v>
@@ -34199,34 +34199,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H42" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I42" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J42" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K42" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M42" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N42" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O42" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q42" t="n">
         <v>27.7739924736929</v>
@@ -34235,10 +34235,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S42" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T42" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U42" t="n">
         <v>0.01431452333374772</v>
@@ -34284,10 +34284,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K43" t="n">
         <v>21.1930037920889</v>
@@ -34299,10 +34299,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P43" t="n">
         <v>22.06195011345467</v>
@@ -34311,13 +34311,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R43" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S43" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T43" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U43" t="n">
         <v>0.009949767038539404</v>
@@ -34357,34 +34357,34 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4066571452937371</v>
+        <v>0.406657145293737</v>
       </c>
       <c r="H44" t="n">
         <v>4.164677489239486</v>
       </c>
       <c r="I44" t="n">
-        <v>15.67764959393682</v>
+        <v>15.67764959393681</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51451688537435</v>
+        <v>34.51451688537434</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565825</v>
+        <v>51.72831384565824</v>
       </c>
       <c r="L44" t="n">
-        <v>64.17354745594147</v>
+        <v>64.17354745594146</v>
       </c>
       <c r="M44" t="n">
-        <v>71.40543646355897</v>
+        <v>71.40543646355896</v>
       </c>
       <c r="N44" t="n">
-        <v>72.5608510776248</v>
+        <v>72.56085107762479</v>
       </c>
       <c r="O44" t="n">
         <v>68.51715408911019</v>
       </c>
       <c r="P44" t="n">
-        <v>58.47780581467106</v>
+        <v>58.47780581467104</v>
       </c>
       <c r="Q44" t="n">
         <v>43.91439679883908</v>
@@ -34393,7 +34393,7 @@
         <v>25.54467690305773</v>
       </c>
       <c r="S44" t="n">
-        <v>9.266699698381043</v>
+        <v>9.266699698381041</v>
       </c>
       <c r="T44" t="n">
         <v>1.780141653523335</v>
@@ -34436,34 +34436,34 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2175807546729653</v>
+        <v>0.2175807546729652</v>
       </c>
       <c r="H45" t="n">
         <v>2.101372025394165</v>
       </c>
       <c r="I45" t="n">
-        <v>7.491267211327972</v>
+        <v>7.49126721132797</v>
       </c>
       <c r="J45" t="n">
         <v>20.5566098088173</v>
       </c>
       <c r="K45" t="n">
-        <v>35.13452037190598</v>
+        <v>35.13452037190597</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24269850914538</v>
+        <v>47.24269850914537</v>
       </c>
       <c r="M45" t="n">
         <v>55.13000086604035</v>
       </c>
       <c r="N45" t="n">
-        <v>56.58912794452705</v>
+        <v>56.58912794452704</v>
       </c>
       <c r="O45" t="n">
         <v>51.76799648572081</v>
       </c>
       <c r="P45" t="n">
-        <v>41.54838112698054</v>
+        <v>41.54838112698053</v>
       </c>
       <c r="Q45" t="n">
         <v>27.7739924736929</v>
@@ -34472,10 +34472,10 @@
         <v>13.50909282083551</v>
       </c>
       <c r="S45" t="n">
-        <v>4.041467087894769</v>
+        <v>4.041467087894768</v>
       </c>
       <c r="T45" t="n">
-        <v>0.877003129580943</v>
+        <v>0.8770031295809428</v>
       </c>
       <c r="U45" t="n">
         <v>0.01431452333374772</v>
@@ -34521,10 +34521,10 @@
         <v>1.621812027281922</v>
       </c>
       <c r="I46" t="n">
-        <v>5.485638227248054</v>
+        <v>5.485638227248053</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89655637645348</v>
+        <v>12.89655637645347</v>
       </c>
       <c r="K46" t="n">
         <v>21.1930037920889</v>
@@ -34536,10 +34536,10 @@
         <v>28.59397217425579</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91407142662229</v>
+        <v>27.91407142662228</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78316298586843</v>
+        <v>25.78316298586842</v>
       </c>
       <c r="P46" t="n">
         <v>22.06195011345467</v>
@@ -34548,13 +34548,13 @@
         <v>15.27455069866439</v>
       </c>
       <c r="R46" t="n">
-        <v>8.201924628769305</v>
+        <v>8.201924628769303</v>
       </c>
       <c r="S46" t="n">
         <v>3.178950568813335</v>
       </c>
       <c r="T46" t="n">
-        <v>0.779398418018919</v>
+        <v>0.7793984180189188</v>
       </c>
       <c r="U46" t="n">
         <v>0.009949767038539404</v>
@@ -35255,19 +35255,19 @@
         <v>3.206918035433006</v>
       </c>
       <c r="L9" t="n">
+        <v>0.1678556611008975</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="M9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0.1678556611008989</v>
       </c>
       <c r="O9" t="n">
         <v>3.516869431124803</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>101.3548838438619</v>
       </c>
       <c r="K11" t="n">
-        <v>47.20688057400791</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>47.18298822124891</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="M11" t="n">
         <v>188.4860450762372</v>
       </c>
       <c r="N11" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874959</v>
       </c>
       <c r="O11" t="n">
-        <v>34.55585361291136</v>
+        <v>103.500555069835</v>
       </c>
       <c r="P11" t="n">
-        <v>163.040877737904</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>88.42333294916997</v>
@@ -35498,13 +35498,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N12" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O12" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46347816017692</v>
+        <v>84.46347816017698</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35541,13 +35541,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.5248431845729442</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.95911359883033</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -35562,31 +35562,31 @@
         <v>12.31711898238308</v>
       </c>
       <c r="I13" t="n">
-        <v>13.28795960680967</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>57.90019044705599</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>43.28526009541982</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>152.9205398770395</v>
       </c>
       <c r="N13" t="n">
         <v>161.6173515437901</v>
       </c>
       <c r="O13" t="n">
-        <v>61.61039122484466</v>
+        <v>140.6589497292531</v>
       </c>
       <c r="P13" t="n">
-        <v>119.6598020505343</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.92244958906445</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,28 +35644,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>101.3548838438619</v>
+        <v>101.3548838438618</v>
       </c>
       <c r="K14" t="n">
-        <v>171.4066867664378</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
+        <v>47.18298822124889</v>
+      </c>
+      <c r="M14" t="n">
         <v>188.4860450762372</v>
       </c>
-      <c r="M14" t="n">
-        <v>174.447392715893</v>
-      </c>
       <c r="N14" t="n">
-        <v>76.07772050874961</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O14" t="n">
-        <v>34.55585361291136</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>32.33257523026848</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35784,13 +35784,13 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.95911359883027</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.21488163109433</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -35805,25 +35805,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>37.94066731524361</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>145.9858137434031</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>161.6173515437901</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>140.6589497292531</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505343</v>
+        <v>119.6598020505342</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.92244958906445</v>
+        <v>32.3206594747711</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,43 +35878,43 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>56.43976948871866</v>
+        <v>56.4397694887186</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>43.20895614447748</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124889</v>
       </c>
       <c r="M17" t="n">
-        <v>81.66780162964173</v>
+        <v>81.66780162964172</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874961</v>
+        <v>188.4860450762372</v>
       </c>
       <c r="O17" t="n">
         <v>34.55585361291136</v>
       </c>
       <c r="P17" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>69.69772492850484</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>102.5664892927773</v>
       </c>
       <c r="S17" t="n">
-        <v>69.9335213655902</v>
+        <v>69.93352136559014</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880344</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U17" t="n">
-        <v>47.30138199368485</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -36115,43 +36115,43 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871866</v>
+        <v>23.57100512444669</v>
       </c>
       <c r="J20" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124889</v>
       </c>
       <c r="M20" t="n">
-        <v>81.66780162964173</v>
+        <v>81.66780162964172</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874959</v>
       </c>
       <c r="O20" t="n">
         <v>34.55585361291136</v>
       </c>
       <c r="P20" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>73.43235891034621</v>
+        <v>102.5664892927773</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>69.93352136559014</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>47.30138199368479</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36209,7 +36209,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N21" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O21" t="n">
         <v>133.0233611548194</v>
@@ -36352,22 +36352,22 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>23.05388495246912</v>
+        <v>56.4397694887186</v>
       </c>
       <c r="J23" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="K23" t="n">
-        <v>188.4860450762372</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124889</v>
       </c>
       <c r="M23" t="n">
-        <v>188.4860450762372</v>
+        <v>81.66780162964172</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874961</v>
+        <v>76.07772050874959</v>
       </c>
       <c r="O23" t="n">
         <v>34.55585361291136</v>
@@ -36376,7 +36376,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>186.9326282877802</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -36446,7 +36446,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4860450762372</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="O24" t="n">
         <v>133.0233611548194</v>
@@ -36604,19 +36604,19 @@
         <v>295.1558309817707</v>
       </c>
       <c r="N26" t="n">
-        <v>289.565749860879</v>
+        <v>289.5657498608786</v>
       </c>
       <c r="O26" t="n">
         <v>248.0438829650404</v>
       </c>
       <c r="P26" t="n">
-        <v>198.387143240492</v>
+        <v>198.3871432404919</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.769598451758</v>
+        <v>123.7695984517579</v>
       </c>
       <c r="R26" t="n">
-        <v>18.6025901996382</v>
+        <v>18.60259019963817</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36683,7 +36683,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N27" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O27" t="n">
         <v>133.0233611548194</v>
@@ -36729,10 +36729,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>47.03084838015664</v>
       </c>
       <c r="D28" t="n">
-        <v>68.30537910141831</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36747,10 +36747,10 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>48.63422510939763</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>93.24645594964394</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>77.97463522573165</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>0</v>
@@ -36771,7 +36771,7 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>86.26871509165244</v>
+        <v>43.63719997960441</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,7 +36832,7 @@
         <v>136.7011493464499</v>
       </c>
       <c r="K29" t="n">
-        <v>206.7529522690257</v>
+        <v>206.7529522690258</v>
       </c>
       <c r="L29" t="n">
         <v>260.6710175733779</v>
@@ -36841,7 +36841,7 @@
         <v>295.1558309817707</v>
       </c>
       <c r="N29" t="n">
-        <v>289.5657498608786</v>
+        <v>289.5657498608787</v>
       </c>
       <c r="O29" t="n">
         <v>248.0438829650404</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.6025901996382</v>
+        <v>18.60259019963823</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36920,7 +36920,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N30" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O30" t="n">
         <v>133.0233611548194</v>
@@ -36963,19 +36963,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>7.813497065075829</v>
       </c>
       <c r="C31" t="n">
-        <v>25.52829439370285</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>68.30537910141834</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>71.81188813990406</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>74.5611471336824</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -36999,7 +36999,7 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>196.963617046378</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>10.05681797872155</v>
+        <v>10.05681797872158</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.6110338056704</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282462</v>
+        <v>207.6628367282463</v>
       </c>
       <c r="L32" t="n">
         <v>261.5809020325984</v>
@@ -37078,7 +37078,7 @@
         <v>296.0657154409913</v>
       </c>
       <c r="N32" t="n">
-        <v>290.4756343200991</v>
+        <v>290.4756343200992</v>
       </c>
       <c r="O32" t="n">
         <v>248.9537674242609</v>
@@ -37087,10 +37087,10 @@
         <v>199.2970276997125</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.5651407880858</v>
+        <v>102.5651407880856</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885871</v>
+        <v>19.51247465885873</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37157,7 +37157,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N33" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O33" t="n">
         <v>133.0233611548194</v>
@@ -37203,10 +37203,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>47.9407328393772</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>34.26707191620897</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -37215,10 +37215,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>45.69711107911115</v>
       </c>
       <c r="H34" t="n">
-        <v>48.57326894419157</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -37233,7 +37233,7 @@
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>21.56099686697827</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.9159520123428</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>87.17859955087297</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>10.96670243794209</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37300,31 +37300,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.04691547795235</v>
       </c>
       <c r="J35" t="n">
         <v>195.2721944288227</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="L35" t="n">
-        <v>204.4489303272202</v>
+        <v>47.18298822124889</v>
       </c>
       <c r="M35" t="n">
-        <v>81.66780162964173</v>
+        <v>260.4612548573207</v>
       </c>
       <c r="N35" t="n">
-        <v>76.07772050874961</v>
+        <v>130.8394212378082</v>
       </c>
       <c r="O35" t="n">
         <v>34.55585361291136</v>
       </c>
       <c r="P35" t="n">
-        <v>256.9581883228648</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37333,10 +37333,10 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>49.59292168803713</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>21.90852798291854</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -37394,7 +37394,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N36" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O36" t="n">
         <v>133.0233611548194</v>
@@ -37455,10 +37455,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>35.55669493473962</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37540,34 +37540,34 @@
         <v>31.04691547795235</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>195.2721944288227</v>
       </c>
       <c r="K38" t="n">
-        <v>128.2754687490512</v>
+        <v>260.4612548573209</v>
       </c>
       <c r="L38" t="n">
-        <v>47.18298822124891</v>
+        <v>47.18298822124889</v>
       </c>
       <c r="M38" t="n">
-        <v>81.66780162964173</v>
+        <v>81.66780162964172</v>
       </c>
       <c r="N38" t="n">
-        <v>76.07772050874961</v>
+        <v>187.9185718286527</v>
       </c>
       <c r="O38" t="n">
         <v>34.55585361291136</v>
       </c>
       <c r="P38" t="n">
-        <v>256.9581883228648</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>77.17363528201102</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54066735482388</v>
+        <v>44.54066735482387</v>
       </c>
       <c r="T38" t="n">
         <v>49.59292168803713</v>
@@ -37631,7 +37631,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N39" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O39" t="n">
         <v>133.0233611548194</v>
@@ -37683,49 +37683,49 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
+        <v>0</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
+        <v>0</v>
+      </c>
+      <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
         <v>35.55669493473962</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>0</v>
-      </c>
-      <c r="R40" t="n">
-        <v>0</v>
-      </c>
-      <c r="S40" t="n">
-        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -37777,22 +37777,22 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>164.2252789508703</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>47.99005634402975</v>
+        <v>212.2153352949001</v>
       </c>
       <c r="L41" t="n">
-        <v>47.18298822124891</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6799605861912</v>
+        <v>81.66780162964172</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652991</v>
+        <v>76.07772050874959</v>
       </c>
       <c r="O41" t="n">
-        <v>34.55585361291136</v>
+        <v>275.5680125694608</v>
       </c>
       <c r="P41" t="n">
         <v>225.9112728449124</v>
@@ -37868,7 +37868,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N42" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O42" t="n">
         <v>133.0233611548194</v>
@@ -37914,10 +37914,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>74.55497798457714</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>22.96271317271206</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>48.25989189502273</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -37959,13 +37959,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>37.58094758314202</v>
       </c>
       <c r="S43" t="n">
-        <v>5.573630023553008</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>17.25048170267745</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -38020,28 +38020,28 @@
         <v>234.2770818734462</v>
       </c>
       <c r="L44" t="n">
-        <v>101.908121648382</v>
+        <v>288.1951471777984</v>
       </c>
       <c r="M44" t="n">
-        <v>81.66780162964173</v>
+        <v>81.66780162964172</v>
       </c>
       <c r="N44" t="n">
-        <v>76.07772050874961</v>
+        <v>280.4894477572955</v>
       </c>
       <c r="O44" t="n">
         <v>275.5680125694608</v>
       </c>
       <c r="P44" t="n">
-        <v>225.9112728449124</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2937280561784</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>46.12671980405867</v>
       </c>
       <c r="S44" t="n">
-        <v>13.49375187687152</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>18.54600621008477</v>
@@ -38105,7 +38105,7 @@
         <v>183.503360791178</v>
       </c>
       <c r="N45" t="n">
-        <v>206.9660977774831</v>
+        <v>206.966097777483</v>
       </c>
       <c r="O45" t="n">
         <v>133.0233611548194</v>
@@ -38181,13 +38181,13 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>103.0913211808422</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>85.84083947816474</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.25048170267745</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
